--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E063B5-94DC-4E5D-8407-5CF5EE5E58C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4213C175-2BC6-483F-8676-77FB10CCB10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="276">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1092,14 +1092,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.ajax를 주로 사용하는 경우
+    <r>
+      <t xml:space="preserve">1.ajax를 주로 사용하는 경우
 2.아스키랑,바이너리 차이?
 3.HTML,DHTML,XHTML차이?
 4.퍼미션이란?
-(진도)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(진도)
 web프로젝트/file1~10번
 (복습)
 file5번까지</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.신입에게 바라는 역량-메모장
+2. I/O랑 NIO의 차이는 무엇?
+(진도)
+web프로젝트/file11~18번 18번숙제 InputStream,OutputStream</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2042,7 +2063,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2218,7 +2239,9 @@
       <c r="D8" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="14" t="s">
+        <v>275</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="43"/>

--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4213C175-2BC6-483F-8676-77FB10CCB10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615DAEA9-2A54-4209-B7A3-D87FD2040989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
@@ -1117,10 +1117,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.신입에게 바라는 역량-메모장
+    <r>
+      <t xml:space="preserve">1.신입에게 바라는 역량-메모장
 2. I/O랑 NIO의 차이는 무엇?
-(진도)
-web프로젝트/file11~18번 18번숙제 InputStream,OutputStream</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(진도)
+web프로젝트/file11~18번 18번숙제 InputStream,OutputStream
+(복습)
+file11~18번까지</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615DAEA9-2A54-4209-B7A3-D87FD2040989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E36F9-75EA-4669-91B3-E0BB5624D6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="6420" yWindow="540" windowWidth="21600" windowHeight="13650" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="279">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1139,6 +1139,24 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>(진도)
+example/Js1~Js9.html
+(복습)
+금요일은 휴식함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://naver.me/xPvkbdZ6 
+비번 b505505</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(숙제)
+자바스크립트 응용편 응용하기+자바스크립트 복습
+이번주 엑셀 내용 정리 + 메모장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1147,7 +1165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1330,15 @@
       <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1513,15 +1540,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1669,10 +1699,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="쉼표 [0] 2" xfId="1" xr:uid="{2D1CFF34-D6AA-4AF6-B265-6B701DDD07AB}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2078,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2258,9 +2292,15 @@
       <c r="E8" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="43"/>
+      <c r="F8" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>277</v>
+      </c>
       <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2356,9 +2396,12 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{A272EF68-F461-4FD0-9D55-766C1C6D6649}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E36F9-75EA-4669-91B3-E0BB5624D6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F74132-2908-409D-8AC3-567F53C58789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="540" windowWidth="21600" windowHeight="13650" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="280">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1147,14 +1147,45 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://naver.me/xPvkbdZ6 
+    <t>선생님 클라우드 아이디,비번
+http://naver.me/xPvkbdZ6 
 비번 b505505</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(숙제)
+    <t>데이터 베이스할듯 다음주는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(복습)
+js1~js9.html까지 함
+(숙제)
 자바스크립트 응용편 응용하기+자바스크립트 복습
-이번주 엑셀 내용 정리 + 메모장</t>
+이번주 엑셀 내용 정리 + 메모장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>js_homework.html부터 다시 한번 보고 숙제하기
+&amp;&amp;&amp;일요일은 가급적 전체적으로 지난 것 훑어보자 + 주간 공부 정리 ,문서 정리 위주</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1551,7 +1582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1687,6 +1718,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1699,7 +1733,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2112,7 +2146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2125,16 +2159,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2292,16 +2326,18 @@
       <c r="E8" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="50" t="s">
         <v>276</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="H8" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -2397,7 +2433,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" xr:uid="{A272EF68-F461-4FD0-9D55-766C1C6D6649}"/>
+    <hyperlink ref="H8" r:id="rId1" display="http://naver.me/xPvkbdZ6 _x000a_비번 b505505" xr:uid="{A272EF68-F461-4FD0-9D55-766C1C6D6649}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3263,90 +3299,90 @@
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="48" t="s">
+      <c r="A186" s="49" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="48"/>
+      <c r="A187" s="49"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="48"/>
+      <c r="A188" s="49"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="48"/>
+      <c r="A189" s="49"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="48"/>
+      <c r="A190" s="49"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="48"/>
+      <c r="A191" s="49"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="48"/>
+      <c r="A192" s="49"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="48"/>
+      <c r="A193" s="49"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="48"/>
+      <c r="A194" s="49"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="48"/>
+      <c r="A195" s="49"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="48"/>
+      <c r="A196" s="49"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="48"/>
+      <c r="A197" s="49"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="48"/>
+      <c r="A198" s="49"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="48"/>
+      <c r="A199" s="49"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="48"/>
+      <c r="A200" s="49"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="48"/>
+      <c r="A201" s="49"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="48"/>
+      <c r="A202" s="49"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="48"/>
+      <c r="A203" s="49"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="48"/>
+      <c r="A204" s="49"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="48"/>
+      <c r="A205" s="49"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="48"/>
+      <c r="A206" s="49"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="48"/>
+      <c r="A207" s="49"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="48"/>
+      <c r="A208" s="49"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="48"/>
+      <c r="A209" s="49"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="48"/>
+      <c r="A210" s="49"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="48"/>
+      <c r="A211" s="49"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="48"/>
+      <c r="A212" s="49"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="48"/>
+      <c r="A213" s="49"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="20" t="s">
@@ -4732,90 +4768,90 @@
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="48" t="s">
+      <c r="A186" s="49" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="48"/>
+      <c r="A187" s="49"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="48"/>
+      <c r="A188" s="49"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="48"/>
+      <c r="A189" s="49"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="48"/>
+      <c r="A190" s="49"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="48"/>
+      <c r="A191" s="49"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="48"/>
+      <c r="A192" s="49"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="48"/>
+      <c r="A193" s="49"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="48"/>
+      <c r="A194" s="49"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="48"/>
+      <c r="A195" s="49"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="48"/>
+      <c r="A196" s="49"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="48"/>
+      <c r="A197" s="49"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="48"/>
+      <c r="A198" s="49"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="48"/>
+      <c r="A199" s="49"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="48"/>
+      <c r="A200" s="49"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="48"/>
+      <c r="A201" s="49"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="48"/>
+      <c r="A202" s="49"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="48"/>
+      <c r="A203" s="49"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="48"/>
+      <c r="A204" s="49"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="48"/>
+      <c r="A205" s="49"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="48"/>
+      <c r="A206" s="49"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="48"/>
+      <c r="A207" s="49"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="48"/>
+      <c r="A208" s="49"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="48"/>
+      <c r="A209" s="49"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="48"/>
+      <c r="A210" s="49"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="48"/>
+      <c r="A211" s="49"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="48"/>
+      <c r="A212" s="49"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="48"/>
+      <c r="A213" s="49"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="20" t="s">

--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F74132-2908-409D-8AC3-567F53C58789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4827B58A-31B8-4E6E-BC8E-1F3BFD50E2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
@@ -1184,7 +1184,7 @@
         <scheme val="minor"/>
       </rPr>
       <t>js_homework.html부터 다시 한번 보고 숙제하기
-&amp;&amp;&amp;일요일은 가급적 전체적으로 지난 것 훑어보자 + 주간 공부 정리 ,문서 정리 위주</t>
+&amp;&amp;&amp;일요일은 가급적 전체적으로 지난 것 훑어보자 + 주간 공부 정리 ,문서 정리 위주 + 자바스크립트 깃허브에 코드 사진 정리</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1721,6 +1721,9 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1732,9 +1735,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2159,16 +2159,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2326,7 +2326,7 @@
       <c r="E8" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="46" t="s">
         <v>276</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -3299,90 +3299,90 @@
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="49" t="s">
+      <c r="A186" s="50" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="49"/>
+      <c r="A187" s="50"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="49"/>
+      <c r="A188" s="50"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="49"/>
+      <c r="A189" s="50"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="49"/>
+      <c r="A190" s="50"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="49"/>
+      <c r="A191" s="50"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="49"/>
+      <c r="A192" s="50"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="49"/>
+      <c r="A193" s="50"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="49"/>
+      <c r="A194" s="50"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="49"/>
+      <c r="A195" s="50"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="49"/>
+      <c r="A196" s="50"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="49"/>
+      <c r="A197" s="50"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="49"/>
+      <c r="A198" s="50"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="49"/>
+      <c r="A199" s="50"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="49"/>
+      <c r="A200" s="50"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="49"/>
+      <c r="A201" s="50"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="49"/>
+      <c r="A202" s="50"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="49"/>
+      <c r="A203" s="50"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="49"/>
+      <c r="A204" s="50"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="49"/>
+      <c r="A205" s="50"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="49"/>
+      <c r="A206" s="50"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="49"/>
+      <c r="A207" s="50"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="49"/>
+      <c r="A208" s="50"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="49"/>
+      <c r="A209" s="50"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="49"/>
+      <c r="A210" s="50"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="49"/>
+      <c r="A211" s="50"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="49"/>
+      <c r="A212" s="50"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="49"/>
+      <c r="A213" s="50"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="20" t="s">
@@ -4768,90 +4768,90 @@
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="49" t="s">
+      <c r="A186" s="50" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="49"/>
+      <c r="A187" s="50"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="49"/>
+      <c r="A188" s="50"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="49"/>
+      <c r="A189" s="50"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="49"/>
+      <c r="A190" s="50"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="49"/>
+      <c r="A191" s="50"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="49"/>
+      <c r="A192" s="50"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="49"/>
+      <c r="A193" s="50"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="49"/>
+      <c r="A194" s="50"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="49"/>
+      <c r="A195" s="50"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="49"/>
+      <c r="A196" s="50"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="49"/>
+      <c r="A197" s="50"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="49"/>
+      <c r="A198" s="50"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="49"/>
+      <c r="A199" s="50"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="49"/>
+      <c r="A200" s="50"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="49"/>
+      <c r="A201" s="50"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="49"/>
+      <c r="A202" s="50"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="49"/>
+      <c r="A203" s="50"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="49"/>
+      <c r="A204" s="50"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="49"/>
+      <c r="A205" s="50"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="49"/>
+      <c r="A206" s="50"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="49"/>
+      <c r="A207" s="50"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="49"/>
+      <c r="A208" s="50"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="49"/>
+      <c r="A209" s="50"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="49"/>
+      <c r="A210" s="50"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="49"/>
+      <c r="A211" s="50"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="49"/>
+      <c r="A212" s="50"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="49"/>
+      <c r="A213" s="50"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="20" t="s">

--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4827B58A-31B8-4E6E-BC8E-1F3BFD50E2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D04B13-5FA0-4639-B22C-C94F1365837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="1860" yWindow="1665" windowWidth="25335" windowHeight="13650" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="282">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1186,6 +1186,15 @@
       <t>js_homework.html부터 다시 한번 보고 숙제하기
 &amp;&amp;&amp;일요일은 가급적 전체적으로 지난 것 훑어보자 + 주간 공부 정리 ,문서 정리 위주 + 자바스크립트 깃허브에 코드 사진 정리</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(계획)
+자바스크립트 응용편 활용하기 + 숙제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1582,7 +1591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1735,6 +1744,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2146,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2255,7 +2267,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="H5" s="40"/>
       <c r="I5" s="34"/>
@@ -2365,7 +2377,9 @@
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="51" t="s">
+        <v>280</v>
+      </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2436,6 +2450,9 @@
     <hyperlink ref="H8" r:id="rId1" display="http://naver.me/xPvkbdZ6 _x000a_비번 b505505" xr:uid="{A272EF68-F461-4FD0-9D55-766C1C6D6649}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A11" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D04B13-5FA0-4639-B22C-C94F1365837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40384F8-C3B3-42F6-80A3-C02FEF591A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1665" windowWidth="25335" windowHeight="13650" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="2250" yWindow="1140" windowWidth="25335" windowHeight="13650" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="364">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1084,10 +1106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>메모하셈 3주차꺼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>휴일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1189,21 +1207,272 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(계획)
-자바스크립트 응용편 활용하기 + 숙제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(복습)
+자바스크립트 응용편 활용하기 + 숙제 완료
+주간 내용 정리 + 빠르게 복습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax는 주로 언제 사용하나?</t>
+  </si>
+  <si>
+    <t>우편번호가 필요한 경우는 ajax사용 form도 가능</t>
+  </si>
+  <si>
+    <t>ajax 아이디중복체크, 주소, 휴대폰 인증번호에 씀</t>
+  </si>
+  <si>
+    <t>해당페이지url에서 그대로 정보만 확인할때 ajax쓴다보면됨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수량 늘리는건 ajax </t>
+  </si>
+  <si>
+    <t>같은페이지에서 정보 변경이 필요할때 ajax쓴다는 원리를 알고잇으시오 ㅋ</t>
+  </si>
+  <si>
+    <t>데이터가 저장될땐 폼태그로 저장</t>
+  </si>
+  <si>
+    <t>url이 바뀌는건 폼태그임</t>
+  </si>
+  <si>
+    <t>검색은 form</t>
+  </si>
+  <si>
+    <t>공유기 관리자 패스워드 걸어놓는법</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>아스키랑 바이너리는 도데체 무슨 차이인가? 뜻과 차이점을 조사 해오시오</t>
+  </si>
+  <si>
+    <t>컴퓨터는 우선 0과 1밖에 모름</t>
+  </si>
+  <si>
+    <t>256자의 글자를 8비트 코드로 정의 = 1바이트 2의 8승 0~255 = 256개 이내로 정의 가능</t>
+  </si>
+  <si>
+    <t>컴퓨터로 문자,숫자 등 소통을 위한 미국표준방식으로</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한마디로 A를 예로 들면 우리가 자주쓰는 10진수인 65로 약속을 정해놓고 사람이 </t>
+  </si>
+  <si>
+    <t>A를누르면 컴퓨터는 2진수로 변환해서 알아먹는 방식 (키보드 입력 or 텍스트한정)</t>
+  </si>
+  <si>
+    <t>좀더 확장된 버전이 유니코드</t>
+  </si>
+  <si>
+    <t>각종 자음 모음 획 등 숫자로 규정한 것</t>
+  </si>
+  <si>
+    <t>바이너리</t>
+  </si>
+  <si>
+    <t>--2진법 0과 1 두 숫자만으로 수를 나타내는 표기 방법</t>
+  </si>
+  <si>
+    <t>ex)이미지 컬러 같은경우 rgb(11111111,00000000,00000000) 레드</t>
+  </si>
+  <si>
+    <t>각 픽셀별 색상들을 모두 이진법으로 처리하는 거임</t>
+  </si>
+  <si>
+    <t>영상도 마찬가지 1프레임당 각 픽셀들을 이진법으로 처리</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>기본중에 기본임</t>
+  </si>
+  <si>
+    <t>HTML, DHTML, XHTML 차이점은?</t>
+  </si>
+  <si>
+    <t>HTML : 웹페이지 구조 내용</t>
+  </si>
+  <si>
+    <t>DHTML : 동적으로만드는 기술 사용자 상호작용,애니메이션 등</t>
+  </si>
+  <si>
+    <t>XML 사용, 웹표준 일관성,호환성</t>
+  </si>
+  <si>
+    <t>퍼미션이란? 리눅스 같은곳에서 사용</t>
+  </si>
+  <si>
+    <t>파일이나 디렉토리에 접근할수 있는 권한제어 시스템</t>
+  </si>
+  <si>
+    <t>소유자/사용자그룹/제3자</t>
+  </si>
+  <si>
+    <t>읽기 = 4 쓰기 = 2 실행 = 1</t>
+  </si>
+  <si>
+    <t>읽고 실행 6</t>
+  </si>
+  <si>
+    <t>읽기만 4</t>
+  </si>
+  <si>
+    <t>예를들어 640이면</t>
+  </si>
+  <si>
+    <t>소유자 6 = 읽고 쓰기 가능</t>
+  </si>
+  <si>
+    <t>사용자 4 = 읽기만 가능</t>
+  </si>
+  <si>
+    <t>제 3자 0 = 아무것도 못함</t>
+  </si>
+  <si>
+    <t>공지----------</t>
+  </si>
+  <si>
+    <t>클라우드 주소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://naver.me/xPvkbdZ6 </t>
+  </si>
+  <si>
+    <t>비번 b505505</t>
+  </si>
+  <si>
+    <t>ASCII (아스키 코드) -- jsp 아스키형식</t>
+  </si>
+  <si>
+    <t>이미지 서버</t>
+  </si>
+  <si>
+    <t>면접질문</t>
+  </si>
+  <si>
+    <t>웹서버 뭘써봣냐? 아파치, 톰캣</t>
+  </si>
+  <si>
+    <t>데이터베이스 my-sql , mariadb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엔진 jsp , java , spring boot </t>
+  </si>
+  <si>
+    <t>node.js 이런거 사용해봣냐? react vue angular 이런거 써봣냐?</t>
+  </si>
+  <si>
+    <t>서버 한대당 4천만? 오우쉩트</t>
+  </si>
+  <si>
+    <t>서버 개수에 따라 회사 돈얼마잇는지 파악가능</t>
+  </si>
+  <si>
+    <t>XHTML : HTML 엄격한버전 -----검색엔진 최적화</t>
+  </si>
+  <si>
+    <t>img 태그로 치면 title, alt 써줘야 됨 마감태그도 써야되고</t>
+  </si>
+  <si>
+    <t>프레임워크 react vue angular 쓰면 xhtml로 만들어줌 xhtml때문에 프레임워크 저걸로쓰는거임!!!!!</t>
+  </si>
+  <si>
+    <t>신입에게 바라는 것</t>
+  </si>
+  <si>
+    <t>유지보수 잘했으면 좋겠다</t>
+  </si>
+  <si>
+    <t>업무</t>
+  </si>
+  <si>
+    <t>기존 데이터 베이스 설계된 것 보고 추가될 필드 생성 문제없이 처리하는게 필요</t>
+  </si>
+  <si>
+    <t>업로드 기능 rwx --- rwx 707 =&gt; (파일이 업로드 됬을때) rwx --- r-- = &gt; rwx -- r-x</t>
+  </si>
+  <si>
+    <t>r = 4 (읽기전용)</t>
+  </si>
+  <si>
+    <t>w = 2 (쓰기)</t>
+  </si>
+  <si>
+    <t>x = 1 (실행)</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>io, nio 차이점이 뭔지 알아오기</t>
+  </si>
+  <si>
+    <t>I/O 란?</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>N I/O란?</t>
+  </si>
+  <si>
+    <t>IO/NIO</t>
+  </si>
+  <si>
+    <t>입출력방식 :Stream방식 vs Channel 방식</t>
+  </si>
+  <si>
+    <t>버퍼 방식 : non-buffer vs buffer 방식</t>
+  </si>
+  <si>
+    <t>비 동기 방식: 지원 X vs 지원 O</t>
+  </si>
+  <si>
+    <t>블로킹 방식 : 블로킹 vs 논 블로킹/블로킹</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;&amp;주요 차이점</t>
+  </si>
+  <si>
+    <t>IO는 입출력작업 완료 전까지 프로그램 순차적 처리 하는형태</t>
+  </si>
+  <si>
+    <t>NIO는 버퍼(메모리)를 사용하기 때문에 입출력 작업이 블로킹되지 않고 동시다발 비동기 처리가능</t>
+  </si>
+  <si>
+    <t>특히 Path -파일 복사,삭제 이동시에는 nio를 사용하게 된다</t>
+  </si>
+  <si>
+    <t>-----------------------------</t>
+  </si>
+  <si>
+    <t>io 원리를 알려고 하자!!!</t>
+  </si>
+  <si>
+    <t>내일할것</t>
+  </si>
+  <si>
+    <t>html에 내용을 쓰고 서버에 저장이 되어야 한다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-현재 이클립스에는 nio2 라이브러리로 확인이 되고 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1391,7 +1660,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1579,6 +1848,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1591,7 +1897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1733,6 +2039,39 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1745,8 +2084,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2158,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2171,16 +2510,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2267,7 +2606,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H5" s="40"/>
       <c r="I5" s="34"/>
@@ -2327,28 +2666,28 @@
     <row r="8" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="G8" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H8" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="H8" s="45" t="s">
+      <c r="I8" s="37" t="s">
         <v>277</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2377,7 +2716,7 @@
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="47" t="s">
         <v>280</v>
       </c>
       <c r="B10" s="15"/>
@@ -3316,90 +3655,90 @@
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="50" t="s">
+      <c r="A186" s="61" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="50"/>
+      <c r="A187" s="61"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="50"/>
+      <c r="A188" s="61"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="50"/>
+      <c r="A189" s="61"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="50"/>
+      <c r="A190" s="61"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="50"/>
+      <c r="A191" s="61"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="50"/>
+      <c r="A192" s="61"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="50"/>
+      <c r="A193" s="61"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="50"/>
+      <c r="A194" s="61"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="50"/>
+      <c r="A195" s="61"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="50"/>
+      <c r="A196" s="61"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="50"/>
+      <c r="A197" s="61"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="50"/>
+      <c r="A198" s="61"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="50"/>
+      <c r="A199" s="61"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="50"/>
+      <c r="A200" s="61"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="50"/>
+      <c r="A201" s="61"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="50"/>
+      <c r="A202" s="61"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="50"/>
+      <c r="A203" s="61"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="50"/>
+      <c r="A204" s="61"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="50"/>
+      <c r="A205" s="61"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="50"/>
+      <c r="A206" s="61"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="50"/>
+      <c r="A207" s="61"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="50"/>
+      <c r="A208" s="61"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="50"/>
+      <c r="A209" s="61"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="50"/>
+      <c r="A210" s="61"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="50"/>
+      <c r="A211" s="61"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="50"/>
+      <c r="A212" s="61"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="50"/>
+      <c r="A213" s="61"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="20" t="s">
@@ -3994,10 +4333,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1290B4-C84E-48ED-9560-0F0A3DE8A9A3}">
-  <dimension ref="A1:A340"/>
+  <dimension ref="A1:C470"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4005,1452 +4344,1593 @@
     <col min="1" max="1" width="79.75" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32"/>
+    <row r="1" spans="1:1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
+      <c r="A2" s="49" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="50" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="50" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>272</v>
+      <c r="A5" s="50" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="50" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="50"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="50" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="51"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="50" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="50"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="50" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="50" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="50"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="50" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="50"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="50" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="49" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="50"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="50" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="49" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+      <c r="A23" s="50"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+      <c r="A24" s="50" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="50" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="50" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+      <c r="A27" s="50" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+      <c r="A28" s="50"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="50" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="50" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+      <c r="A31" s="50" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+      <c r="A32" s="50"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+      <c r="A33" s="50"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="50" t="e">
+        <f>--하지만 소통을 해야하니 ANSI가 규정한 것으로 문자를 읽고,쓰기위한 (미국표준방식)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="50" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="50"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+      <c r="A37" s="50" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
+      <c r="A38" s="49" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
+      <c r="A39" s="50" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
+      <c r="A40" s="50"/>
     </row>
     <row r="41" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
+      <c r="A41" s="50" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="42" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-    </row>
-    <row r="43" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="29"/>
-    </row>
-    <row r="44" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="22" t="s">
-        <v>233</v>
+      <c r="A42" s="49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="52" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
-        <v>232</v>
+      <c r="A46" s="53" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="26" t="s">
-        <v>231</v>
+      <c r="A47" s="54" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
-        <v>230</v>
+      <c r="A48" s="54" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
-        <v>229</v>
-      </c>
+      <c r="A49" s="54"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
-        <v>228</v>
+      <c r="A50" s="54" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
+      <c r="A51" s="54" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="26" t="s">
-        <v>227</v>
+      <c r="A52" s="54" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
+      <c r="A53" s="54" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
-        <v>226</v>
+      <c r="A54" s="54" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
+      <c r="A55" s="54" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="26" t="s">
-        <v>225</v>
+      <c r="A56" s="54" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26" t="s">
-        <v>224</v>
+      <c r="A57" s="54" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="26"/>
+      <c r="A58" s="54"/>
+    </row>
+    <row r="59" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A59" s="54" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="26" t="s">
-        <v>222</v>
-      </c>
+      <c r="A60" s="54"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
-        <v>221</v>
+      <c r="A61" s="54" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
+      <c r="A62" s="54" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
+      <c r="A63" s="54" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="26" t="s">
-        <v>220</v>
+      <c r="A64" s="54" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="26"/>
+      <c r="A65" s="54"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="26" t="s">
-        <v>219</v>
+      <c r="A66" s="54" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
-        <v>218</v>
+      <c r="A67" s="54" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
+      <c r="A68" s="54" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="26">
-        <v>200</v>
+      <c r="A69" s="54" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="26">
-        <v>301</v>
+      <c r="A70" s="54" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="26">
-        <v>302</v>
+      <c r="A71" s="54" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="26">
-        <v>303</v>
+      <c r="A72" s="54" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="26">
-        <v>401</v>
+      <c r="A73" s="54" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="26">
-        <v>402</v>
+      <c r="A74" s="54" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26">
-        <v>403</v>
+      <c r="A75" s="54" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="26">
-        <v>404</v>
+      <c r="A76" s="54" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="26">
-        <v>405</v>
-      </c>
+      <c r="A77" s="54"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="26"/>
+      <c r="A78" s="54" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="26"/>
+      <c r="A79" s="54" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="26"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="26"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="26"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="26"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="26" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="26" t="s">
-        <v>205</v>
+      <c r="A80" s="54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="54" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="54"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="54" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="57">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="54" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="54"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="54" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="54"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="54" t="e" cm="1">
+        <f t="array" ref="A91">-상대적으로 느린 IO를 개선하고자 만든 것</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="54"/>
+      <c r="C92" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="54" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="54" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="26" t="s">
-        <v>204</v>
-      </c>
+      <c r="A97" s="54"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="26" t="s">
-        <v>203</v>
+      <c r="A98" s="54" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="22" t="s">
-        <v>199</v>
+      <c r="A99" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="54" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A101" s="50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="52" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="21"/>
+      <c r="A103" s="49"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="20" t="s">
-        <v>198</v>
+      <c r="A104" s="49" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="20" t="s">
-        <v>197</v>
-      </c>
+      <c r="A105" s="49"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="20"/>
+      <c r="A106" s="49" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="A107" s="49"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="20" t="s">
-        <v>195</v>
+      <c r="A108" s="49" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="20"/>
+      <c r="A109" s="49" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="20" t="s">
-        <v>194</v>
+      <c r="A110" s="49" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="20" t="s">
-        <v>193</v>
-      </c>
+      <c r="A111" s="49"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="20" t="s">
-        <v>192</v>
-      </c>
+      <c r="A112" s="49"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="20" t="s">
-        <v>191</v>
+      <c r="A113" s="49" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="20"/>
+      <c r="A114" s="49" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="20" t="s">
-        <v>190</v>
+      <c r="A115" s="49" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="20" t="s">
-        <v>189</v>
+      <c r="A116" s="49" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="20" t="s">
-        <v>188</v>
-      </c>
+      <c r="A117" s="49"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="A118" s="49"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="A119" s="49"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="20" t="s">
-        <v>185</v>
-      </c>
+      <c r="A120" s="49"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="20" t="s">
-        <v>184</v>
-      </c>
+      <c r="A121" s="49"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="A122" s="49"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="20"/>
+      <c r="A123" s="49"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="20" t="s">
-        <v>182</v>
-      </c>
+      <c r="A124" s="49"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="20"/>
+      <c r="A125" s="49"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="A126" s="49"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="A127" s="49"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="20"/>
+      <c r="A128" s="49"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="20" t="s">
-        <v>179</v>
-      </c>
+      <c r="A129" s="49"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="20" t="s">
-        <v>178</v>
-      </c>
+      <c r="A130" s="49"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="A131" s="49"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="20" t="s">
-        <v>176</v>
-      </c>
+      <c r="A132" s="49"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="20" t="e">
-        <f>--다른위치 찾았을경우</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="A133" s="49"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="A134" s="49"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="20" t="e">
-        <f>--다른위치를 요청했을 경우</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A136" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="A135" s="49"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="49"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="20"/>
+      <c r="A137" s="49"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="20" t="s">
-        <v>173</v>
-      </c>
+      <c r="A138" s="49"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="20" t="s">
-        <v>172</v>
-      </c>
+      <c r="A139" s="49"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="20" t="s">
-        <v>171</v>
-      </c>
+      <c r="A140" s="49"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="20" t="s">
-        <v>170</v>
-      </c>
+      <c r="A141" s="49"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="20" t="s">
-        <v>169</v>
-      </c>
+      <c r="A142" s="49"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="20" t="s">
-        <v>168</v>
-      </c>
+      <c r="A143" s="49"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="20" t="s">
-        <v>167</v>
-      </c>
+      <c r="A144" s="49"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="20"/>
+      <c r="A145" s="49"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="20"/>
+      <c r="A146" s="49"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="20" t="s">
-        <v>166</v>
-      </c>
+      <c r="A147" s="49"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="A148" s="49"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="20" t="s">
-        <v>164</v>
-      </c>
+      <c r="A149" s="49"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="A150" s="49"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="20"/>
+      <c r="A151" s="49"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="A152" s="49"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="20" t="s">
-        <v>161</v>
-      </c>
+      <c r="A153" s="49"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="A154" s="49"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="20"/>
+      <c r="A155" s="49"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="20"/>
+      <c r="A156" s="49"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="A157" s="49"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="A158" s="49"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="A159" s="49"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="20" t="s">
-        <v>156</v>
-      </c>
+      <c r="A160" s="49"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="20"/>
+      <c r="A161" s="49"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="A162" s="49"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="A163" s="49"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="A164" s="49"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="20" t="s">
-        <v>152</v>
-      </c>
+      <c r="A165" s="49"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="20"/>
+      <c r="A166" s="49"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="20" t="s">
-        <v>151</v>
-      </c>
+      <c r="A167" s="49"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="A168" s="49"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="20"/>
+      <c r="A169" s="49"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="A170" s="49"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="A171" s="49"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="20" t="s">
-        <v>147</v>
-      </c>
+      <c r="A172" s="49"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="A173" s="49"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="20"/>
+      <c r="A174" s="49"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="20" t="s">
-        <v>145</v>
-      </c>
+      <c r="A175" s="49"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="20" t="s">
-        <v>144</v>
-      </c>
+      <c r="A176" s="49"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="20" t="s">
-        <v>143</v>
-      </c>
+      <c r="A177" s="49"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="A178" s="49"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="A179" s="49"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="A180" s="49"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="A181" s="49"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="20" t="s">
-        <v>138</v>
-      </c>
+      <c r="A182" s="49"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="20"/>
+      <c r="A183" s="49"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="A184" s="49"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="20" t="s">
-        <v>136</v>
-      </c>
+      <c r="A185" s="49"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="50" t="s">
-        <v>135</v>
-      </c>
+      <c r="A186" s="62"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="50"/>
+      <c r="A187" s="62"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="50"/>
+      <c r="A188" s="62"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="50"/>
+      <c r="A189" s="62"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="50"/>
+      <c r="A190" s="62"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="50"/>
+      <c r="A191" s="62"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="50"/>
+      <c r="A192" s="62"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="50"/>
+      <c r="A193" s="62"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="50"/>
+      <c r="A194" s="62"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="50"/>
+      <c r="A195" s="62"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="50"/>
+      <c r="A196" s="62"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="50"/>
+      <c r="A197" s="62"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="50"/>
+      <c r="A198" s="62"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="50"/>
+      <c r="A199" s="62"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="50"/>
+      <c r="A200" s="62"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="50"/>
+      <c r="A201" s="62"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="50"/>
+      <c r="A202" s="62"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="50"/>
+      <c r="A203" s="62"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="50"/>
+      <c r="A204" s="62"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="50"/>
+      <c r="A205" s="62"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="50"/>
+      <c r="A206" s="62"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="50"/>
+      <c r="A207" s="62"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="50"/>
+      <c r="A208" s="62"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="50"/>
+      <c r="A209" s="62"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="50"/>
+      <c r="A210" s="62"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="50"/>
+      <c r="A211" s="62"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="50"/>
+      <c r="A212" s="62"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="50"/>
+      <c r="A213" s="62"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="A214" s="49"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="20" t="s">
-        <v>133</v>
-      </c>
+      <c r="A215" s="49"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="A216" s="49"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="A217" s="49"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="20"/>
+      <c r="A218" s="49"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="20"/>
-    </row>
-    <row r="220" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="22" t="s">
-        <v>129</v>
-      </c>
+      <c r="A219" s="49"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="49"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="50"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="52"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="25" t="s">
-        <v>128</v>
-      </c>
+      <c r="A223" s="55"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="25"/>
+      <c r="A224" s="55"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="25" t="s">
-        <v>127</v>
-      </c>
+      <c r="A225" s="55"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="25" t="s">
-        <v>126</v>
-      </c>
+      <c r="A226" s="55"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="25" t="s">
-        <v>125</v>
-      </c>
+      <c r="A227" s="55"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="25" t="s">
-        <v>124</v>
-      </c>
+      <c r="A228" s="55"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="25" t="s">
-        <v>123</v>
-      </c>
+      <c r="A229" s="55"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="25"/>
+      <c r="A230" s="55"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="25"/>
+      <c r="A231" s="55"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="25" t="s">
-        <v>122</v>
-      </c>
+      <c r="A232" s="55"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="25" t="s">
-        <v>121</v>
-      </c>
+      <c r="A233" s="55"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="25" t="s">
-        <v>120</v>
-      </c>
+      <c r="A234" s="55"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="25" t="s">
-        <v>119</v>
-      </c>
+      <c r="A235" s="55"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="25"/>
+      <c r="A236" s="55"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="25"/>
+      <c r="A237" s="55"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="25" t="s">
-        <v>90</v>
-      </c>
+      <c r="A238" s="55"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="25" t="s">
-        <v>118</v>
-      </c>
+      <c r="A239" s="55"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="25"/>
+      <c r="A240" s="55"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="25" t="s">
-        <v>117</v>
-      </c>
+      <c r="A241" s="55"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="25" t="e">
-        <f>-- 싱글 페이지 애플리케이션이란?</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="A242" s="55"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="25" t="s">
-        <v>116</v>
-      </c>
+      <c r="A243" s="55"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="25" t="s">
-        <v>115</v>
-      </c>
+      <c r="A244" s="55"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" s="25" t="s">
-        <v>114</v>
-      </c>
+      <c r="A245" s="55"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="25"/>
+      <c r="A246" s="55"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="25"/>
+      <c r="A247" s="55"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="25" t="s">
-        <v>113</v>
-      </c>
+      <c r="A248" s="55"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="25" t="s">
-        <v>112</v>
-      </c>
+      <c r="A249" s="55"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="25" t="s">
-        <v>111</v>
-      </c>
+      <c r="A250" s="55"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="25" t="s">
-        <v>110</v>
-      </c>
+      <c r="A251" s="55"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="25" t="s">
-        <v>109</v>
-      </c>
+      <c r="A252" s="55"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="25" t="s">
-        <v>108</v>
-      </c>
+      <c r="A253" s="55"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="25" t="s">
-        <v>107</v>
-      </c>
+      <c r="A254" s="55"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" s="25" t="s">
-        <v>106</v>
-      </c>
+      <c r="A255" s="55"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" s="25" t="s">
-        <v>105</v>
-      </c>
+      <c r="A256" s="55"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="A257" s="55"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" s="25" t="s">
-        <v>103</v>
-      </c>
+      <c r="A258" s="55"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" s="25" t="s">
-        <v>102</v>
-      </c>
+      <c r="A259" s="55"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="25" t="s">
-        <v>101</v>
-      </c>
+      <c r="A260" s="55"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" s="25" t="s">
-        <v>100</v>
-      </c>
+      <c r="A261" s="55"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" s="25"/>
+      <c r="A262" s="55"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="25" t="s">
-        <v>92</v>
-      </c>
+      <c r="A263" s="55"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="25" t="s">
-        <v>99</v>
-      </c>
+      <c r="A264" s="55"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="25" t="s">
-        <v>98</v>
-      </c>
+      <c r="A265" s="55"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="25" t="s">
-        <v>97</v>
-      </c>
+      <c r="A266" s="55"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" s="25" t="s">
-        <v>96</v>
-      </c>
+      <c r="A267" s="55"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" s="25"/>
+      <c r="A268" s="55"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" s="25" t="s">
-        <v>96</v>
-      </c>
+      <c r="A269" s="55"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" s="25"/>
+      <c r="A270" s="55"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" s="25"/>
+      <c r="A271" s="55"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" s="25" t="s">
-        <v>95</v>
-      </c>
+      <c r="A272" s="55"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" s="25" t="e">
-        <f>-- 멀티 페이지 애플리케이션</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="A273" s="55"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" s="25" t="s">
-        <v>94</v>
-      </c>
+      <c r="A274" s="55"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" s="25"/>
+      <c r="A275" s="55"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="25" t="s">
-        <v>93</v>
-      </c>
+      <c r="A276" s="55"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" s="25" t="s">
-        <v>92</v>
-      </c>
+      <c r="A277" s="55"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" s="25" t="s">
-        <v>91</v>
-      </c>
+      <c r="A278" s="55"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" s="25"/>
+      <c r="A279" s="55"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" s="25" t="s">
-        <v>90</v>
-      </c>
+      <c r="A280" s="55"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" s="25" t="s">
-        <v>89</v>
-      </c>
+      <c r="A281" s="55"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" s="25"/>
+      <c r="A282" s="55"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" s="25" t="s">
-        <v>88</v>
-      </c>
+      <c r="A283" s="55"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" s="25" t="s">
-        <v>87</v>
-      </c>
+      <c r="A284" s="55"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" s="25" t="s">
-        <v>86</v>
-      </c>
+      <c r="A285" s="55"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" s="25" t="s">
-        <v>85</v>
-      </c>
+      <c r="A286" s="55"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" s="25" t="s">
-        <v>84</v>
-      </c>
+      <c r="A287" s="55"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" s="25" t="s">
-        <v>83</v>
-      </c>
+      <c r="A288" s="55"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" s="25" t="s">
-        <v>82</v>
-      </c>
+      <c r="A289" s="55"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" s="25" t="s">
-        <v>81</v>
-      </c>
+      <c r="A290" s="55"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="22" t="s">
-        <v>77</v>
-      </c>
+      <c r="A291" s="55"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="55"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="50"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="52"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" s="21" t="s">
-        <v>76</v>
-      </c>
+      <c r="A295" s="49"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="A296" s="49"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="A297" s="49"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" s="20"/>
+      <c r="A298" s="49"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="A299" s="49"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" s="20"/>
+      <c r="A300" s="49"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="A301" s="49"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" s="20"/>
+      <c r="A302" s="49"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="A303" s="49"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" s="20"/>
+      <c r="A304" s="49"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="A305" s="49"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" s="20"/>
+      <c r="A306" s="49"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="A307" s="49"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" s="20"/>
+      <c r="A308" s="49"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="A309" s="49"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="A310" s="49"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="A311" s="49"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="A312" s="49"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="A313" s="49"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="A314" s="49"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="A315" s="49"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" s="20"/>
+      <c r="A316" s="49"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="A317" s="49"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="A318" s="49"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" s="20"/>
+      <c r="A319" s="49"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="A320" s="49"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="A321" s="49"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="A322" s="49"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="A323" s="49"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" s="20"/>
+      <c r="A324" s="49"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="A325" s="49"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" s="20"/>
+      <c r="A326" s="49"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="A327" s="49"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="A328" s="49"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="A329" s="49"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="A330" s="49"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="A331" s="49"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="A332" s="49"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="A333" s="49"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" s="20" t="s">
-        <v>47</v>
-      </c>
+      <c r="A334" s="49"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="A335" s="49"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" s="20"/>
+      <c r="A336" s="49"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="A337" s="49"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="A338" s="49"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
+      <c r="A339" s="49"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="49"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="49"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="49"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="49"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="49"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="49"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="49"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="49"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="49"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="49"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="49"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="49"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="49"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="49"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="49"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="49"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="49"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="49"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="49"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="49"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="49"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="49"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="49"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="49"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="49"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="49"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="49"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="49"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="49"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="49"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="49"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="49"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="49"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="49"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="49"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="49"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="49"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="49"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="49"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="49"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="49"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="49"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="49"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" s="49"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="49"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="49"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="49"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" s="49"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" s="49"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="49"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" s="49"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="49"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="49"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" s="49"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" s="49"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" s="49"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="49"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="49"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="49"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="49"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" s="49"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" s="49"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" s="49"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" s="49"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" s="49"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" s="49"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" s="49"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" s="49"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" s="49"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" s="49"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" s="49"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" s="49"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" s="49"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" s="49"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" s="49"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" s="49"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" s="49"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" s="49"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" s="49"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" s="49"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" s="49"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" s="49"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" s="49"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" s="49"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" s="49"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" s="49"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" s="49"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" s="49"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" s="49"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" s="49"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" s="49"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" s="49"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" s="49"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" s="49"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" s="49"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" s="49"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" s="49"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" s="49"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" s="49"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" s="49"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" s="49"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" s="49"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" s="49"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" s="49"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" s="49"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" s="49"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" s="49"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" s="49"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" s="49"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" s="49"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" s="49"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" s="49"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" s="49"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" s="49"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" s="49"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" s="49"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" s="49"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" s="49"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458" s="49"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459" s="49"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460" s="49"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461" s="49"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462" s="49"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463" s="49"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464" s="49"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465" s="49"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" s="49"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" s="49"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" s="49"/>
+    </row>
+    <row r="469" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="56"/>
+    </row>
+    <row r="470" spans="1:1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A186:A213"/>

--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40384F8-C3B3-42F6-80A3-C02FEF591A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD5B7EF-B63B-42C6-AEF2-46033479584C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="1140" windowWidth="25335" windowHeight="13650" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="35025" yWindow="2595" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
     <sheet name="8월2주" sheetId="2" r:id="rId2"/>
     <sheet name="8월3주" sheetId="3" r:id="rId3"/>
+    <sheet name="8월4주" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="442">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1465,6 +1466,310 @@
   <si>
     <t xml:space="preserve">-현재 이클립스에는 nio2 라이브러리로 확인이 되고 </t>
   </si>
+  <si>
+    <t>(진도)
+1.example/java/file1~file3.java
+( I/O활용문제 ) - Stream을 좀더 연구하도록 하자
+2.database 기초 - 메모장 참조
+3.example/wepabb/js9.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체지향 -&gt; 통신 -&gt; Servlet으로 활용하는 단계 까지 목표로 잡자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit은 form 의 메소드와 액션을 작동시켜줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이클립스 Terminal 모니터 누르면 서버 바로 스윽 접속가능!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql -u root -p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비번치고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>show databases;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 베이스 버전이 회사마다 다르기 때문에 잘 확인!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안먹는 명령어가 있을수가 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql 과 mariadb 는 거의 90%가 명령ㅇ어가 같음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 추가하는 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡㅡㅡㅡㅡㅡ db에 접속만 하는 사용자 ㅡㅡㅡㅡㅡㅡㅡㅡ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost - 서버에 접속해야 로그인 할 수 있는 형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>% - 외부에서 접속을 허용하여 로그인을 하는 형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.11.1 이런건 특정 IP만 허용하여 접속을 하는 형태!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상식 : 윈도우 서버는 연습용은 괜찮지만 실제 운용서버로는 잘안씀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 운용 서버는 유닉스나 리눅스를 주로 사용을 함!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[mysql 5.5 이하 버전일 경우]</t>
+  </si>
+  <si>
+    <t>insert into 로 사용자를 추가해야 한다.</t>
+  </si>
+  <si>
+    <t>[mysql 5.5 이상 버전일 경우]</t>
+  </si>
+  <si>
+    <t>create identified 로 사용자를 추가해야 한다</t>
+  </si>
+  <si>
+    <t>데이터베이스 명령어 관련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use (데이터 베이스 명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡㅡㅡㅡㅡLinux &amp; Unix =&gt; my.cnf (유닉스계열) --설정 파일 , my.ini</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>show tables;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>creat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create user '가상아이디'@'%' identified by '비밀번호';</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상 아이디 옆 localhost면 내껏만 되고 %는 외부에서도 사용가능하도록 함!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 내용 중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>using password : NO , YES가 뜨면 패스워드가 잘못되었다는 뜻!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into db values('localhost .'Db명','사용자 아이디','y','y') 
+------이건 내것만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into db values('%',Db명','사용자 아이디','y','y') 
+------외부에서 접속하게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 database web이라는게 있는데 'hong' 이라는 사용자와 'kim' 이라는 사용자에게 사용할수 있도록 할때 접속 권한을 주는 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[DataBase 외부 접속방법]</t>
+  </si>
+  <si>
+    <t>Mysql -h ip주소나 도메인명(호스트명) -u 아이디 -p</t>
+  </si>
+  <si>
+    <t>포트번호가 다를경우</t>
+  </si>
+  <si>
+    <t>mysql -h 192.168.110.221 --port 3307 -u kim -p 상대방 아이피 kim 유저로 들어감 이런식으로 검색</t>
+  </si>
+  <si>
+    <t>create table user(</t>
+  </si>
+  <si>
+    <t>uid varchar(100) not null,</t>
+  </si>
+  <si>
+    <t>uname char(100) not null,</t>
+  </si>
+  <si>
+    <t>upass varchar(50) not null,</t>
+  </si>
+  <si>
+    <t>primary key(uidx)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uidx int not null </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auto_increment,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_increment는 자동 증가 값이다 12345번이 있고 
+5번을 지우고 새로 생성을해도 6번이 생김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into db values ('%','web','kim','y','y','y','y',...............쭉 쓰고)
+권한부여 삭제 수정 생성 등등 각종 권한들에 대해서 enum yes로 할지 no로 할지 선택해서 권한부여함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드명 자료형(범위) not null extra  // int(3) 1~999까지 
+int(3) 3자리까지
+bigint(17) (int범위 초과해서 다받아줌)
+bigint : 1~9200000000000000000 
+int : 1~2140000000 
+mediumint : 1 ~ 83만얼마
+smallint : 1 ~ 32767 까지 받음 (이벤트 페이지)
+tinyint    : 1~127번까지 받음 그이상 못받음 주로 댓글기능쓸때 많이씀
+tinyint(2) : 99개까지 댓글을 받는 느낌
+float : 소수점찍어야 할 때 환율, 할인율 등
+double : float보다 범위 거의 두배 정도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자 글자</t>
+  </si>
+  <si>
+    <t>char : 1~ 224 글자 까지 들어감</t>
+  </si>
+  <si>
+    <t>varchar : 1~254 글자 까지 들어감</t>
+  </si>
+  <si>
+    <t>text : 텍스트 파일 기준으로 용량 [ 64kb ] 써야지 다쓸수 있음 --많이 쓸수있단뜻</t>
+  </si>
+  <si>
+    <t>mediumtext : 텍스트 파일 용량 [ 16MB ]</t>
+  </si>
+  <si>
+    <t>longtext :  텍스트 파일 용량 [ 4GB ]</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>char(100) 넉넉히 잡아줘야한다. 크기 정할땐!</t>
+  </si>
+  <si>
+    <t>enum : html로 예를들면 select + option 같은애임</t>
+  </si>
+  <si>
+    <t xml:space="preserve">예시) enum('M','W') 둘중하나 선택해야 하는 경우 남/여 </t>
+  </si>
+  <si>
+    <t>set : enum 과 동일하게 사용가능한형태임 (문자열 형태)</t>
+  </si>
+  <si>
+    <t>----------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>날짜 시간에 관련된 자료형 구조</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date +default(자바에서 format같은것날짜 형식) : 2023-08-21 or 2023.08.21 or 20230821 </t>
+  </si>
+  <si>
+    <t>time + default : 14:22:22 or 14-22-22 or 142222 여러종ㅇ류 가능</t>
+  </si>
+  <si>
+    <t>datatime + default : 2023-08-21 14:22:22</t>
+  </si>
+  <si>
+    <t>timestamp : 자동으로 서버에 있는 시간을 입력시킬때</t>
+  </si>
+  <si>
+    <t>비밀번호 범위 셋팅시 varchar(70) 정도까지 여분을 준다 SHA-512 암호화시
+비밀번호 64자리 정도 까지 사용을 하게 되니깐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table event(</t>
+  </si>
+  <si>
+    <t>eno int not null auto_increment,</t>
+  </si>
+  <si>
+    <t>eid char(100) not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epw varchar(70)not null, </t>
+  </si>
+  <si>
+    <t>etel char(11) not null,</t>
+  </si>
+  <si>
+    <t>email varchar(100) not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecod varchar(20) null, </t>
+  </si>
+  <si>
+    <t>esoft enum('0','1','2') not null default '0',</t>
+  </si>
+  <si>
+    <t>eday datetime not null default '0001-01-01 00:00:00',</t>
+  </si>
+  <si>
+    <t>primary key(eno)</t>
+  </si>
+  <si>
+    <t>CMD 창에서 바로 DataBase 생성시 메모장에 미리 적어서 옮기는 것이 좋다!!!!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-21
+멀티 쓰레드 - 다중통신 ex ) 1대 n의 단톡방 같은 것을 만들수가 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1474,7 +1779,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,6 +1953,91 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3366FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1897,7 +2287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2086,6 +2476,78 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2497,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2719,7 +3181,9 @@
       <c r="A10" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14" t="s">
+        <v>364</v>
+      </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -4335,7 +4799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1290B4-C84E-48ED-9560-0F0A3DE8A9A3}">
   <dimension ref="A1:C470"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
@@ -5939,4 +6403,1594 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5738E637-5389-4C73-B487-9743EE17E5CA}">
+  <dimension ref="A1:A470"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79.75" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="66"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="66"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66"/>
+    </row>
+    <row r="7" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="67" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+    </row>
+    <row r="15" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="68" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="69" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="69"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="69"/>
+    </row>
+    <row r="22" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="71" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="70" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="70" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="70" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="50" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="50" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="79" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="73" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="52" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="63" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="54"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="54"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="66" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="66"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="66"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="66" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="64"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="64"/>
+    </row>
+    <row r="56" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="74" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="54"/>
+    </row>
+    <row r="58" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="71" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="72" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="72" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="72" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="54"/>
+    </row>
+    <row r="63" spans="1:1" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="78" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="75" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="75" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="75" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="75" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="75" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="75" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="75" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="54"/>
+    </row>
+    <row r="72" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="76" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="54"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="54"/>
+    </row>
+    <row r="75" spans="1:1" ht="243" x14ac:dyDescent="0.3">
+      <c r="A75" s="77" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="54"/>
+    </row>
+    <row r="77" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="76" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="76" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="76" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="76" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="76" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="76" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="76" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="80" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="76" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="76" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="76"/>
+    </row>
+    <row r="88" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="76" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="76" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="76" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="76" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="76" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="76" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="76" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="54"/>
+    </row>
+    <row r="96" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A96" s="81" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="54"/>
+    </row>
+    <row r="98" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="77" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="77" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="77" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="82" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="83" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="84" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="84" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="84" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="84" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="84" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="84" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="49"/>
+    </row>
+    <row r="110" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="85" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="86" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="49"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="49"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="49"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="49"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="49"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="49"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="49"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="49"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="49"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="49"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="49"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="49"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="49"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="49"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="49"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="49"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="49"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="49"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="49"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="49"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="49"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="49"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="49"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="49"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="49"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="49"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="49"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="49"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="49"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="49"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="49"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="49"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="49"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="49"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="49"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="49"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="49"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="49"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="49"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="49"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="49"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="49"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="49"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="49"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="49"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="49"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="49"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="49"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="49"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="49"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="49"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="49"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="49"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="49"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="49"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="49"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="49"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="49"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="49"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="49"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="49"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="49"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="49"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="49"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="49"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="49"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="49"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="49"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="49"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="49"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="49"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="49"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="49"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="49"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="62"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="62"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="62"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="62"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="62"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="62"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="62"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="62"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="62"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="62"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="62"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="62"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="62"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="62"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="62"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="62"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="62"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="62"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="62"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="62"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="62"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="62"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="62"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="62"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="62"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="62"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="62"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="62"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="49"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="49"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="49"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="49"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="49"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="49"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="49"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="50"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="52"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="55"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="55"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="55"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="55"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="55"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="55"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="55"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="55"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="55"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="55"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="55"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="55"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="55"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="55"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="55"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="55"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="55"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="55"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="55"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="55"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="55"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="55"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="55"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="55"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="55"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="55"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="55"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="55"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="55"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="55"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="55"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="55"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="55"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="55"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="55"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="55"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="55"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="55"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="55"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="55"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="55"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="55"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="55"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="55"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="55"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="55"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="55"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="55"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="55"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="55"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="55"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="55"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="55"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="55"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="55"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="55"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="55"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="55"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="55"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="55"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="55"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="55"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="55"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="55"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="55"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="55"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="55"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="55"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="55"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="55"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="50"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="52"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="49"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="49"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="49"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="49"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="49"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="49"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="49"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="49"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="49"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="49"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="49"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="49"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="49"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="49"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="49"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="49"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="49"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="49"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="49"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="49"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="49"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="49"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="49"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="49"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="49"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="49"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="49"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="49"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="49"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="49"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="49"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="49"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="49"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="49"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="49"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="49"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="49"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="49"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="49"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="49"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="49"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="49"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="49"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="49"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="49"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="49"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="49"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="49"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="49"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="49"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="49"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="49"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="49"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="49"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="49"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="49"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="49"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="49"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="49"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="49"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="49"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="49"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="49"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="49"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="49"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="49"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="49"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="49"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="49"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="49"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="49"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="49"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="49"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="49"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="49"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="49"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="49"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="49"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="49"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="49"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="49"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="49"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="49"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="49"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="49"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="49"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="49"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="49"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" s="49"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="49"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="49"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="49"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" s="49"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" s="49"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="49"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" s="49"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="49"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="49"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" s="49"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" s="49"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" s="49"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="49"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="49"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="49"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="49"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" s="49"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" s="49"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" s="49"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" s="49"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" s="49"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" s="49"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" s="49"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" s="49"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" s="49"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" s="49"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" s="49"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" s="49"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" s="49"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" s="49"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" s="49"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" s="49"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" s="49"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" s="49"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" s="49"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" s="49"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" s="49"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" s="49"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" s="49"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" s="49"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" s="49"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" s="49"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" s="49"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" s="49"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" s="49"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" s="49"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" s="49"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" s="49"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" s="49"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" s="49"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" s="49"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" s="49"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" s="49"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" s="49"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" s="49"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" s="49"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" s="49"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" s="49"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" s="49"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" s="49"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" s="49"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" s="49"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" s="49"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" s="49"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" s="49"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" s="49"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" s="49"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" s="49"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" s="49"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" s="49"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" s="49"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" s="49"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" s="49"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" s="49"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458" s="49"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459" s="49"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460" s="49"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461" s="49"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462" s="49"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463" s="49"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464" s="49"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465" s="49"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" s="49"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" s="49"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" s="49"/>
+    </row>
+    <row r="469" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="56"/>
+    </row>
+    <row r="470" spans="1:1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A186:A213"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD5B7EF-B63B-42C6-AEF2-46033479584C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284448E0-02FD-490D-98C8-6C29FEB3D7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35025" yWindow="2595" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="624">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1770,6 +1770,564 @@
     <t>08-21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>08-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[desc 명령어] -- 컬럼 볼수 있음</t>
+  </si>
+  <si>
+    <t>desc 테이블명;</t>
+  </si>
+  <si>
+    <t>[select 사용법]</t>
+  </si>
+  <si>
+    <t>select * from 테이블명;</t>
+  </si>
+  <si>
+    <t>select * from 테이블명 where 컬럼명='컬럼값';  : &lt;&lt;해당 데이터 중 조건에 맞는 데이터만 출력&gt;&gt;</t>
+  </si>
+  <si>
+    <t>(오류내용)</t>
+  </si>
+  <si>
+    <t>Using password : NO 둘다</t>
+  </si>
+  <si>
+    <t>Using password : YES 패스워드가 틀린거임</t>
+  </si>
+  <si>
+    <t>[insert 사용법] -- 두개</t>
+  </si>
+  <si>
+    <t>1. insert into 테이블 명 (컬럼명을쓰고) values ('데이터값');</t>
+  </si>
+  <si>
+    <t>2. insert into 테이블 명 values('데이터 값');</t>
+  </si>
+  <si>
+    <t>insert into db values('localhost .'Db명','사용자 아이디','y','y') ------이건 내것만</t>
+  </si>
+  <si>
+    <t>insert into db values('%',Db명','사용자 아이디','y','y') ------외부에서 접속하게</t>
+  </si>
+  <si>
+    <t>[Database] 를 가상사용자에게]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후 DataBase를 재시작해줘야함!!; 권한 부여하는 방식임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 권한부여시 권한 목록 리스트 출력?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 db 서버로 접속시------------------</t>
+  </si>
+  <si>
+    <t>create user '가상아이디'@'%'identified by '비밀번호'; =&gt; 외부에서 접속가능하도록 만듦</t>
+  </si>
+  <si>
+    <t>create user '가상아이디'@'192.168.110.221'identified by '비밀번호'; ---저 아이피 가진사람만! 접속가능</t>
+  </si>
+  <si>
+    <t>실제 웹 서버를 다뤄봤냐가 핵심!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>포트번호 바꾼경우</t>
+  </si>
+  <si>
+    <t>&gt;mysql -h 192.168.110.221 --port 3307 -u kim -p 상대방 아이피 kim 유저로 들어감 이런식으로 검색</t>
+  </si>
+  <si>
+    <t>mysql -h 192.168.110.221 -u kim -p 상대방 아이피 kim 유저로 들어감 -- 해당 포트 디폴트 값일경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게맞나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into db이름 values( );</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드명 넣고 넣는법 (필드를 갑자기 추가 해야할 경우) 자바 소스는 수정이 안되도 데이터베이스 저장은 가능함!</t>
+  </si>
+  <si>
+    <t>가급적 이 방법을 추천함!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into event (eno,eid,epw,etel,email,ecode,esoft,eday) </t>
+  </si>
+  <si>
+    <t>values ('0','hong','a1234567',,'01012345678','hong@nate.com','A12345678','2','2023-08-22 09:47:22');</t>
+  </si>
+  <si>
+    <t>필드명 없이 넣는법 (필드를 더이상 추가할 일이 없을때)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into event </t>
+  </si>
+  <si>
+    <t>values ('0','kim','a1234567','01012345555','hong@nate.com','A12345678','2','2023-08-22 09:49:02');</t>
+  </si>
+  <si>
+    <t>default '0001-01-01 00:00:00', 안전빵으로 이걸쓰자!</t>
+  </si>
+  <si>
+    <t>eday datetime not null default '0000-00-00 00:00:00' mariadb 5이하는 이렇게 써도되지만</t>
+  </si>
+  <si>
+    <t>5이상은 default만들때 '0001-01-01 00:00:00', 이걸로 써야함</t>
+  </si>
+  <si>
+    <t>select count(*) as cnt from event;</t>
+  </si>
+  <si>
+    <t>select 컬럼명 from 테이블 명;  : 리스트 중 해당 컬럼에 대한 데이터 목록만 출력</t>
+  </si>
+  <si>
+    <t>select count(*) from 테이블명;  : 데이터의 갯수를 파악함!</t>
+  </si>
+  <si>
+    <t>select count(*) as cnt from 테이블명 : 컬럼명 cnt 이름으로 갯수 출력!</t>
+  </si>
+  <si>
+    <t>select * from 테이블명 order by 컬럼명 desc; 내림차순</t>
+  </si>
+  <si>
+    <t>select * from 테이블명 order by 컬럼명 asc; 오름차순</t>
+  </si>
+  <si>
+    <t>select * from 테이블명 order by 컬럼명,컬럼명 desc; : 2개 이상의 컬럼명을 사용할때 ( 정렬하고싶을때)</t>
+  </si>
+  <si>
+    <t>select * from 테이블명 where 컬럼명='컬럼값' and 컬렴명='컬럼값'; : 2개 조건 모두 충족시 데이터 출력</t>
+  </si>
+  <si>
+    <t>select * from 테이블명 where 컬럼명='컬럼값' or 컬렴명='컬럼값'; : 2개 조건 중 하나 충족시 데이터 출력</t>
+  </si>
+  <si>
+    <t>필드명을 내 마음대로 바꿔보자</t>
+  </si>
+  <si>
+    <t>아이디와 tel을 뽑아보자</t>
+  </si>
+  <si>
+    <t>alter 테이블 구조 바꿀때 eid epw 사이에 ename 넣고싶을때</t>
+  </si>
+  <si>
+    <t>alter table event add ename char(50) not null after eid ; 이렇게 써야됨 after eid 안쓰면 맨뒤에 붙어버림</t>
+  </si>
+  <si>
+    <t>대신 갑자기 추가하는 것이기떄문에 기존에 것은 공백 다음것부터는 데이터 들어옴</t>
+  </si>
+  <si>
+    <t>[alter 사용법]  - 주로 Database 구조 또는 테이블 구조나 컬럼명을 변경할때 사용!!!!</t>
+  </si>
+  <si>
+    <t>alter table 테이블명 add 추가할컬럼명 자료형 null default; : 테이블의 맨 마지막 컬럼뒤에 추가가됨</t>
+  </si>
+  <si>
+    <t>alter table 테이블명 add 추가할컬럼명 자료형 null default after 컬럼명; : 추가할 컬럼을 위치를 설정하여</t>
+  </si>
+  <si>
+    <t>생성이 가능함!</t>
+  </si>
+  <si>
+    <t>alter table 테이블명 modify(수정) 수정할컬럼명 자료형; : 수정할 컬럼을 셋팅한다!!</t>
+  </si>
+  <si>
+    <t>갑자기 필요가 없어졋다! 필드가 그럼 필드를 지워버리자잉</t>
+  </si>
+  <si>
+    <t>alter table 테이블명 drop 컬럼명 : 해당 컬럼 지워짐 단, 데이터 복구 안되니 싸인받고 하자! (백업안한이상 복구 x)</t>
+  </si>
+  <si>
+    <t>영업팀이 자료를 줬단 가정하에 MD팀에서도 많이 줌!</t>
+  </si>
+  <si>
+    <t>데이터 미러링작업을 신입한테 많이 시킴 중요!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>관심분야 enum 써도 되고 char(1) 써도 됨</t>
+  </si>
+  <si>
+    <t>연락처,이메일 같은것도 unique key 씀</t>
+  </si>
+  <si>
+    <t>mno int not null auto_increment,</t>
+  </si>
+  <si>
+    <t>mid char(50) not null,</t>
+  </si>
+  <si>
+    <t>mpass char(50) not null,</t>
+  </si>
+  <si>
+    <t>memail varchar(100) not null,</t>
+  </si>
+  <si>
+    <t>mtel char(11) not null,</t>
+  </si>
+  <si>
+    <t>marea char(2) not null,</t>
+  </si>
+  <si>
+    <t>minter char(1) not null,</t>
+  </si>
+  <si>
+    <t>mage int(2) not null,</t>
+  </si>
+  <si>
+    <t>mdate datetime not null default '0001-01-01 00:00:00',</t>
+  </si>
+  <si>
+    <t>primary key(mno),</t>
+  </si>
+  <si>
+    <t>unique key(mid,memail)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미러링작업!!!!!!!!!!!! </t>
+  </si>
+  <si>
+    <t>테이블 만들고 엑셀시트 활용해서</t>
+  </si>
+  <si>
+    <t>연습용 엑셀!!!</t>
+  </si>
+  <si>
+    <t>http://mekeyace.kbsn.or.kr/member.zip</t>
+  </si>
+  <si>
+    <t>http://mekeyace.kbsn.or.kr/job.zip</t>
+  </si>
+  <si>
+    <t>census Table명으로 미러링 작업 시작  (인구조사뜻)</t>
+  </si>
+  <si>
+    <t>create table census(</t>
+  </si>
+  <si>
+    <t>cno int not null auto_increment,</t>
+  </si>
+  <si>
+    <t>cname char(20) not null,</t>
+  </si>
+  <si>
+    <t>cid char(50) not null,</t>
+  </si>
+  <si>
+    <t>cemail varchar(100) not null,</t>
+  </si>
+  <si>
+    <t>carea int(1) not null,</t>
+  </si>
+  <si>
+    <t>cwifi char(5) not null,</t>
+  </si>
+  <si>
+    <t>ctel char(11) not null,</t>
+  </si>
+  <si>
+    <t>cage int(2) not null,</t>
+  </si>
+  <si>
+    <t>cgender enum('m','w'),</t>
+  </si>
+  <si>
+    <t>ccode char(3) not null,</t>
+  </si>
+  <si>
+    <t>primary key(cno),</t>
+  </si>
+  <si>
+    <t>unique key(cid,cemail)</t>
+  </si>
+  <si>
+    <t>미러링설계다시해보자</t>
+  </si>
+  <si>
+    <t>select * from 테이블명 where 컬럼명 like '%단어';    : 해당 검색 단어로 끝나는 내용 출력</t>
+  </si>
+  <si>
+    <t>select * from 테이블명 where 컬럼명 like '단어%';    : 해당 검색 단어로 시작하는 내용 출력</t>
+  </si>
+  <si>
+    <t>select * from 테이블명 where 컬럼명 like '%단어%';    : 해당 검색 단어 들어간거 전부 출력!</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>성이 김씨로 시작 통신사는 skt 여성분 뽑아</t>
+  </si>
+  <si>
+    <t>연락처가 3883으로끝나는 번호 사용자잇는지?</t>
+  </si>
+  <si>
+    <t>create table 복사항테이블명 (select*from 기존테이블명); : 기존테이블을 복사할 테이블 명으로 복사함</t>
+  </si>
+  <si>
+    <t>--최대 단점 제약 키가 빠져버림 auto_increment도 빠져버림 -- 데이터만 복사됨</t>
+  </si>
+  <si>
+    <t>-- 이렇게 쓰는 경우 는 실무에선 없음 테이블 구조,데이터는 가져오나 제약키가 빠져버림</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>실무에선 이렇게쓴다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이렇게 쓰는경우는 구조만 가져옴 ( 제약키 등 ) </t>
+  </si>
+  <si>
+    <t>create table 복사할테이블명 like 기존테이블명;  //테이블 구조만 복사!! 제약키, 등등</t>
+  </si>
+  <si>
+    <t>insert into 복사된테이블명 (select * from 기존 테이블명);  //데이터가 복사가 됨</t>
+  </si>
+  <si>
+    <t>delete from 테이블명 where 컬럼명='컬럼값';</t>
+  </si>
+  <si>
+    <t>[delete 사용법]</t>
+  </si>
+  <si>
+    <t>delete from 테이블명; //모든 데이터를 삭제 ( 테이블 안에있는)</t>
+  </si>
+  <si>
+    <t>delete from 테이블명 where 필드명= '데이터 값'; //해당 데이터만 삭제됨!~</t>
+  </si>
+  <si>
+    <t>[update 사용법]</t>
+  </si>
+  <si>
+    <t>update 테이블명 set 필드명 ='변경할 값!'; 모두 전체 변경됨</t>
+  </si>
+  <si>
+    <t>update 테이블명 set 필드명 ='변경할 값!' where 필드명='조건값'; 해당 조건에 맞는 데이터만 수정이됨!!</t>
+  </si>
+  <si>
+    <t>delete from member;</t>
+  </si>
+  <si>
+    <t>alter table member auto_increment=1;</t>
+  </si>
+  <si>
+    <t>insert into member(select*from member2); 이렇게 해도됨</t>
+  </si>
+  <si>
+    <t>[백업]</t>
+  </si>
+  <si>
+    <t>mysqldump -u 사용자명 -p 데이터베이스 &gt; 백업할 장소 및 파일명.sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[복구] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysql -u 사용자명 --p 데이터베이스 &lt; 백업할 장소 및 파일명.sql 혹시모를 실수에 대비해서 </t>
+  </si>
+  <si>
+    <t>복구할때 복사본을 만들어 놓는게 좋다 아니 좋은게아니라 무조건만들어야지 싀벌</t>
+  </si>
+  <si>
+    <t>----------------------이건진짜 끔찍하다 ㄹㅇ로 ------------- 진짜 꺽새 잘못하면</t>
+  </si>
+  <si>
+    <t>복구해논것도 다시 조지는수가잇다 진자 개망한다</t>
+  </si>
+  <si>
+    <t>ERD CLOWD 회원가입</t>
+  </si>
+  <si>
+    <t>erd 설계할줄아냐? 중요한역량</t>
+  </si>
+  <si>
+    <t>지역 부서를 숫자로 받겠냐? 한글로 받겠냐? 정해야됨</t>
+  </si>
+  <si>
+    <t>default 는 주로 라디오나 체크박스에서 씀</t>
+  </si>
+  <si>
+    <t>select 굳이 default 안해도됨</t>
+  </si>
+  <si>
+    <t>current_timestamp 자동으로 서버에 있는 시간 입력시킴</t>
+  </si>
+  <si>
+    <t>timestamp 입력시 default 또는 now()를 이용하여 서버시간이 자동으로 적용되도록함!</t>
+  </si>
+  <si>
+    <t>외래키</t>
+  </si>
+  <si>
+    <t>pay 테이블 (결제시스템)</t>
+  </si>
+  <si>
+    <t>결제가 됬는지 안됬는지 구분하는 테이블 있다 치자 유/무</t>
+  </si>
+  <si>
+    <t>두가지 한거번에 설계해야됨</t>
+  </si>
+  <si>
+    <t>결제 테이블 ----부모테이블</t>
+  </si>
+  <si>
+    <t>create table pay(</t>
+  </si>
+  <si>
+    <t>pidx int not null auto_increment,</t>
+  </si>
+  <si>
+    <t>pno char(5) not null,</t>
+  </si>
+  <si>
+    <t>pcode char(10) not null,</t>
+  </si>
+  <si>
+    <t>primary key(pidx,pno)</t>
+  </si>
+  <si>
+    <t>insert into pay values('0','12345','1234567890'); --부모에 집어넣음 데이터</t>
+  </si>
+  <si>
+    <t>자식테이블 2</t>
+  </si>
+  <si>
+    <t>결제 오류 log 테이블 - 추가로 하나 더만듬 세번째임</t>
+  </si>
+  <si>
+    <t>create table log(</t>
+  </si>
+  <si>
+    <t>logno int not null auto_increment,</t>
+  </si>
+  <si>
+    <t>pidx int not null,</t>
+  </si>
+  <si>
+    <t>perror text null,</t>
+  </si>
+  <si>
+    <t>primary key(logno),</t>
+  </si>
+  <si>
+    <t>foreign key(pidx,pno) references pay(pidx,pno)</t>
+  </si>
+  <si>
+    <t>insert into log values('0','1','12346','잔액부족'); -- 부모에 12346이 없으면 생성못함 부모는 12345</t>
+  </si>
+  <si>
+    <t>insert into log values('0','1','12345','잔액부족');</t>
+  </si>
+  <si>
+    <t>insert into log values('0','2','12345','잔액부족');</t>
+  </si>
+  <si>
+    <t>둘이 합칠려고 할때 자료형,크기가 같아야함 pno char(5) not null, 둘중 하나라도 다르면 오류뜸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">결제 유/무 테이블 </t>
+  </si>
+  <si>
+    <t>자식테이블 1</t>
+  </si>
+  <si>
+    <t>create table pay2(</t>
+  </si>
+  <si>
+    <t>paidx int not null,</t>
+  </si>
+  <si>
+    <t>puse enum('Y','N') not null default 'N',</t>
+  </si>
+  <si>
+    <t>foreign key(paidx,pno) references pay(pidx,pno)</t>
+  </si>
+  <si>
+    <t>insert into pay2 values('1','12345','Y');</t>
+  </si>
+  <si>
+    <t>참조가 안된다 주의할 것이 있다 (errno: 150 "Foreign key constraint is incorrectly formed")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">참조무결성 유지해야됨 부모테이블 primary key 만 참조할 수 있음 그래도 오류남 </t>
+  </si>
+  <si>
+    <t>그렇다면? paidx</t>
+  </si>
+  <si>
+    <t>가상의 이름이 필요함!</t>
+  </si>
+  <si>
+    <t>pno2를 별도로 만듬</t>
+  </si>
+  <si>
+    <t>Foreign key 원리를 알아야 함</t>
+  </si>
+  <si>
+    <t>1. 외래키 값은 null이거나 부모 테이블의 기본 키 값과 동일</t>
+  </si>
+  <si>
+    <t>2. 부모 테이블의 기본키,고유키를 왜래키로 저장할 수 있음</t>
+  </si>
+  <si>
+    <t>3. 부모 테이블의 여러개의 primary 키가 있을 경우 외래키도 여러개를 활용할 수 있음!</t>
+  </si>
+  <si>
+    <t>4. auto_increment(부모테이블의) 사용된 필드는 외래키시 필수로 설정하셔야 합니다.</t>
+  </si>
+  <si>
+    <t>참조 된 이상</t>
+  </si>
+  <si>
+    <t>자식테이블 다 삭제해야 부모 테이블을 삭제할수 있음</t>
+  </si>
+  <si>
+    <t>수정도 안됨 지우지도 못함 연관된놈들 다끊어내야됨</t>
+  </si>
+  <si>
+    <t>[KEY]</t>
+  </si>
+  <si>
+    <t>primary key - 중복되지 않는 값이지만 , 자동증가값도 해당됨</t>
+  </si>
+  <si>
+    <t>unique key - 중복되지 않는 값</t>
+  </si>
+  <si>
+    <t>foreign key - 참조키 (테이블과 테이블을 연결하는 키)</t>
+  </si>
+  <si>
+    <t>***부모 테이블과 연결 사항***</t>
+  </si>
+  <si>
+    <t>부모 테이블에서 자식 테이블로 연결시 절대 부모테이블을 데이터 , 테이블을 삭제하지못함</t>
+  </si>
+  <si>
+    <t>자식이 부모 참조시 자식테이블 데이터 수정이 되는지? 해보기!</t>
+  </si>
+  <si>
+    <t>08-23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(진도)
+데이터베이스 기초-crud, 테이블생성,복사 삭제 등등 
+1.DB 미러링 중요, 참조키 아직 어려움 많이반복해서 보자
+2.테이블 생성 등 기초 진도나감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1779,7 +2337,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2041,6 +2599,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2050,7 +2633,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2275,6 +2858,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2287,7 +2885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2462,6 +3060,66 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2477,77 +3135,41 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2959,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2972,16 +3594,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3184,7 +3806,9 @@
       <c r="B10" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="46" t="s">
+        <v>623</v>
+      </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -4119,90 +4743,90 @@
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="61" t="s">
+      <c r="A186" s="81" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="61"/>
+      <c r="A187" s="81"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="61"/>
+      <c r="A188" s="81"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="61"/>
+      <c r="A189" s="81"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="61"/>
+      <c r="A190" s="81"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="61"/>
+      <c r="A191" s="81"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="61"/>
+      <c r="A192" s="81"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="61"/>
+      <c r="A193" s="81"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="61"/>
+      <c r="A194" s="81"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="61"/>
+      <c r="A195" s="81"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="61"/>
+      <c r="A196" s="81"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="61"/>
+      <c r="A197" s="81"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="61"/>
+      <c r="A198" s="81"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="61"/>
+      <c r="A199" s="81"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="61"/>
+      <c r="A200" s="81"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="61"/>
+      <c r="A201" s="81"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="61"/>
+      <c r="A202" s="81"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="61"/>
+      <c r="A203" s="81"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="61"/>
+      <c r="A204" s="81"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="61"/>
+      <c r="A205" s="81"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="61"/>
+      <c r="A206" s="81"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="61"/>
+      <c r="A207" s="81"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="61"/>
+      <c r="A208" s="81"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="61"/>
+      <c r="A209" s="81"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="61"/>
+      <c r="A210" s="81"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="61"/>
+      <c r="A211" s="81"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="61"/>
+      <c r="A212" s="81"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="61"/>
+      <c r="A213" s="81"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="20" t="s">
@@ -5543,88 +6167,88 @@
       <c r="A185" s="49"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="62"/>
+      <c r="A186" s="82"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="62"/>
+      <c r="A187" s="82"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="62"/>
+      <c r="A188" s="82"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="62"/>
+      <c r="A189" s="82"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="62"/>
+      <c r="A190" s="82"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="62"/>
+      <c r="A191" s="82"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="62"/>
+      <c r="A192" s="82"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="62"/>
+      <c r="A193" s="82"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="62"/>
+      <c r="A194" s="82"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="62"/>
+      <c r="A195" s="82"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="62"/>
+      <c r="A196" s="82"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="62"/>
+      <c r="A197" s="82"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="62"/>
+      <c r="A198" s="82"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="62"/>
+      <c r="A199" s="82"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="62"/>
+      <c r="A200" s="82"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="62"/>
+      <c r="A201" s="82"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="62"/>
+      <c r="A202" s="82"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="62"/>
+      <c r="A203" s="82"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="62"/>
+      <c r="A204" s="82"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="62"/>
+      <c r="A205" s="82"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="62"/>
+      <c r="A206" s="82"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="62"/>
+      <c r="A207" s="82"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="62"/>
+      <c r="A208" s="82"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="62"/>
+      <c r="A209" s="82"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="62"/>
+      <c r="A210" s="82"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="62"/>
+      <c r="A211" s="82"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="62"/>
+      <c r="A212" s="82"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="62"/>
+      <c r="A213" s="82"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="49"/>
@@ -6407,10 +7031,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5738E637-5389-4C73-B487-9743EE17E5CA}">
-  <dimension ref="A1:A470"/>
+  <dimension ref="A1:G470"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView showGridLines="0" topLeftCell="A137" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A366" sqref="A366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6419,27 +7043,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="83" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
+      <c r="A2" s="84"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
+      <c r="A3" s="84"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="84"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="84"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+      <c r="A6" s="84"/>
     </row>
     <row r="7" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="60" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6475,7 +7099,7 @@
       <c r="A14" s="50"/>
     </row>
     <row r="15" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="61" t="s">
         <v>371</v>
       </c>
     </row>
@@ -6493,33 +7117,33 @@
       <c r="A18" s="49"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="85" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
+      <c r="A20" s="85"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+      <c r="A21" s="85"/>
     </row>
     <row r="22" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="63" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="62" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="62" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="62" t="s">
         <v>378</v>
       </c>
     </row>
@@ -6591,12 +7215,12 @@
       </c>
     </row>
     <row r="42" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="70" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="64" t="s">
         <v>391</v>
       </c>
     </row>
@@ -6609,7 +7233,7 @@
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="58" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6625,29 +7249,29 @@
       <c r="A49" s="54"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="84" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="66"/>
+      <c r="A51" s="84"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="66"/>
+      <c r="A52" s="84"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="84" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="64"/>
+      <c r="A54" s="86"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="64"/>
+      <c r="A55" s="86"/>
     </row>
     <row r="56" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="74" t="s">
+      <c r="A56" s="65" t="s">
         <v>396</v>
       </c>
     </row>
@@ -6655,22 +7279,22 @@
       <c r="A57" s="54"/>
     </row>
     <row r="58" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="63" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="72" t="s">
+      <c r="A59" s="59" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="59" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="59" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6678,42 +7302,42 @@
       <c r="A62" s="54"/>
     </row>
     <row r="63" spans="1:1" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="78" t="s">
+      <c r="A63" s="69" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="66" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="66" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="66" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="75" t="s">
+      <c r="A67" s="66" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="66" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="75" t="s">
+      <c r="A69" s="66" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="75" t="s">
+      <c r="A70" s="66" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6721,7 +7345,7 @@
       <c r="A71" s="54"/>
     </row>
     <row r="72" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="67" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6732,7 +7356,7 @@
       <c r="A74" s="54"/>
     </row>
     <row r="75" spans="1:1" ht="243" x14ac:dyDescent="0.3">
-      <c r="A75" s="77" t="s">
+      <c r="A75" s="68" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6740,90 +7364,90 @@
       <c r="A76" s="54"/>
     </row>
     <row r="77" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="76" t="s">
+      <c r="A77" s="67" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="76" t="s">
+      <c r="A78" s="67" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="76" t="s">
+      <c r="A79" s="67" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="67" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="76" t="s">
+      <c r="A81" s="67" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="76" t="s">
+      <c r="A82" s="67" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="76" t="s">
+      <c r="A83" s="67" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="80" t="s">
+      <c r="A84" s="71" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="76" t="s">
+      <c r="A85" s="67" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="76" t="s">
+      <c r="A86" s="67" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="76"/>
+      <c r="A87" s="67"/>
     </row>
     <row r="88" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="76" t="s">
+      <c r="A88" s="67" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="76" t="s">
+      <c r="A89" s="67" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="76" t="s">
+      <c r="A90" s="67" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="76" t="s">
+      <c r="A91" s="67" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="67" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="67" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="76" t="s">
+      <c r="A94" s="67" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6831,7 +7455,7 @@
       <c r="A95" s="54"/>
     </row>
     <row r="96" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A96" s="81" t="s">
+      <c r="A96" s="72" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6839,57 +7463,57 @@
       <c r="A97" s="54"/>
     </row>
     <row r="98" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="77" t="s">
+      <c r="A98" s="68" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="77" t="s">
+      <c r="A99" s="68" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="77" t="s">
+      <c r="A100" s="68" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="82" t="s">
+      <c r="A101" s="73" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="83" t="s">
+      <c r="A102" s="74" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="84" t="s">
+      <c r="A103" s="75" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="84" t="s">
+      <c r="A104" s="75" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="84" t="s">
+      <c r="A105" s="75" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="75" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="84" t="s">
+      <c r="A107" s="75" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="84" t="s">
+      <c r="A108" s="75" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6897,778 +7521,1175 @@
       <c r="A109" s="49"/>
     </row>
     <row r="110" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="85" t="s">
+      <c r="A110" s="76" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="86" t="s">
+    <row r="111" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="77" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="49"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="49"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="49"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="49"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="49"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="49"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="49"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="49"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="49"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="49"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="49"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="49"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="49"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="49"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="49"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="49"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="49"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="49"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="49"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="49"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="49"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="49"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="49"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="49"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="49"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="49"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="49"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="49"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="49"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="49"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="49"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="49"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="49"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="49"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="49"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="49"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="49"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="49"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="49"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="49"/>
+    <row r="112" spans="1:1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="88" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="21" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="89" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="89"/>
+    </row>
+    <row r="116" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="89" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="89" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="89" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A119" s="89"/>
+    </row>
+    <row r="120" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A120" s="89" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A121" s="89" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A122" s="89" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A123" s="89"/>
+    </row>
+    <row r="124" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A124" s="89" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A125" s="89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A126" s="89" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A127" s="89"/>
+    </row>
+    <row r="128" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A128" s="89" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="89" t="s">
+        <v>454</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="89" t="s">
+        <v>455</v>
+      </c>
+      <c r="C130" s="87" t="s">
+        <v>467</v>
+      </c>
+      <c r="D130" s="87"/>
+      <c r="E130" s="87"/>
+      <c r="F130" s="87"/>
+      <c r="G130" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="89" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A132" s="89"/>
+    </row>
+    <row r="133" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A133" s="89" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="89" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A135" s="89" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A136" s="89" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A137" s="89"/>
+    </row>
+    <row r="138" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A138" s="89" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A139" s="89" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A140" s="89" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="89" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A142" s="89"/>
+    </row>
+    <row r="143" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="89" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A144" s="89" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A145" s="89" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A146" s="89"/>
+    </row>
+    <row r="147" spans="1:1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A147" s="89" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A148" s="89" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A149" s="89" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A150" s="89" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A151" s="89"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="49"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="49"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="49"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="49"/>
+    <row r="153" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A153" s="76" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A154" s="76" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A155" s="76" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="49"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="49"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="49"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="49"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="49"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="49"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="49"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="49"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="49"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="49"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="49"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="49"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="49"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="49"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="49"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="49"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="49"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="49"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="49"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="49"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="49"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="49"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="49"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="49"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="49"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="49"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="49"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="49"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="49"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="49"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="62"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="62"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="62"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="62"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="62"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="62"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="62"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="62"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="62"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="62"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="62"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="62"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="62"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="62"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="62"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="62"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="62"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="62"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="62"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="62"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="62"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="62"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="62"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="62"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="62"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="62"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="62"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="62"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="49"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="49"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="49"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="49"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="49"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="49"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="49"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="50"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="52"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="55"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="55"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="55"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="55"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="55"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="55"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="55"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="55"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="55"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="55"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="55"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="55"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="55"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="55"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="55"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="55"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="55"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="55"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="55"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="55"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="55"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="55"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" s="55"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="55"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="55"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="55"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="55"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="55"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="55"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="55"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="55"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="55"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" s="55"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" s="55"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" s="55"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" s="55"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" s="55"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="55"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" s="55"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" s="55"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="55"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="55"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="55"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="55"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" s="55"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" s="55"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" s="55"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" s="55"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" s="55"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" s="55"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" s="55"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" s="55"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" s="55"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="55"/>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" s="55"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" s="55"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" s="55"/>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" s="55"/>
+    <row r="157" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A157" s="76" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A158" s="76" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A159" s="76" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A160" s="94"/>
+    </row>
+    <row r="161" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A161" s="90" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A162" s="90"/>
+    </row>
+    <row r="163" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A163" s="90" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A164" s="90" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A165" s="90" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A166" s="90" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A167" s="90" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A168" s="90" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A169" s="90" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A170" s="90" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A171" s="90"/>
+    </row>
+    <row r="172" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A172" s="90" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A173" s="90" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A174" s="90"/>
+    </row>
+    <row r="175" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A175" s="90" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A176" s="90" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A177" s="90" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A178" s="90"/>
+    </row>
+    <row r="179" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A179" s="90" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A180" s="90" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A181" s="90" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A182" s="90" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A183" s="90" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A184" s="90"/>
+    </row>
+    <row r="185" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A185" s="90"/>
+    </row>
+    <row r="186" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A186" s="90" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A187" s="90" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A188" s="90"/>
+    </row>
+    <row r="189" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A189" s="90" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A190" s="90" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A191" s="90"/>
+    </row>
+    <row r="192" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A192" s="90" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A193" s="90" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A194" s="90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A195" s="90" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A196" s="90" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A197" s="90" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A198" s="90" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A199" s="90" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A200" s="90" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A201" s="90" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A202" s="90" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A203" s="90" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A204" s="90" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A205" s="90" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A206" s="90" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A207" s="90"/>
+    </row>
+    <row r="208" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A208" s="90" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A209" s="90" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A210" s="90" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A211" s="90" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A212" s="90" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A213" s="90"/>
+    </row>
+    <row r="214" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A214" s="90"/>
+    </row>
+    <row r="215" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A215" s="90"/>
+    </row>
+    <row r="216" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A216" s="90" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A217" s="90" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A218" s="90" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A219" s="90" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A220" s="90" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A221" s="91" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A222" s="92" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A223" s="93" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A224" s="93" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A225" s="93" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A226" s="93" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A227" s="93" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A228" s="93" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A229" s="93" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A230" s="93" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A231" s="93"/>
+    </row>
+    <row r="232" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A232" s="93" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A233" s="93"/>
+    </row>
+    <row r="234" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A234" s="93" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A235" s="93" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A236" s="93" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A237" s="93" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A238" s="93" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A239" s="93" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A240" s="93"/>
+    </row>
+    <row r="241" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A241" s="93" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A242" s="93" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A243" s="93" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A244" s="93"/>
+    </row>
+    <row r="245" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A245" s="93"/>
+    </row>
+    <row r="246" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A246" s="93" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A247" s="93" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A248" s="93"/>
+    </row>
+    <row r="249" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A249" s="93" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A250" s="93" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A251" s="93"/>
+    </row>
+    <row r="252" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A252" s="93" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A253" s="93"/>
+    </row>
+    <row r="254" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A254" s="93"/>
+    </row>
+    <row r="255" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A255" s="93" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A256" s="93" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A257" s="93" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A258" s="93" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A259" s="93"/>
+    </row>
+    <row r="260" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A260" s="93" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A261" s="93" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A262" s="93" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A263" s="93"/>
+    </row>
+    <row r="264" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A264" s="93" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A265" s="93" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A266" s="93" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A267" s="93"/>
+    </row>
+    <row r="268" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A268" s="93" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A269" s="93" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A270" s="93"/>
+    </row>
+    <row r="271" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A271" s="93" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A272" s="93" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A273" s="93" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A274" s="93"/>
+    </row>
+    <row r="275" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A275" s="93" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A276" s="93" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A277" s="93"/>
+    </row>
+    <row r="278" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A278" s="93" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A279" s="93"/>
+    </row>
+    <row r="280" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A280" s="93" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="55"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" s="55"/>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" s="55"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" s="55"/>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" s="55"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" s="55"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" s="55"/>
+    <row r="282" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A282" s="93" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A283" s="93" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A284" s="93" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A285" s="93"/>
+    </row>
+    <row r="286" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A286" s="93" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A287" s="93" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="55"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" s="55"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" s="55"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" s="55"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" s="55"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" s="50"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" s="52"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" s="49"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" s="49"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" s="49"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" s="49"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" s="49"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" s="49"/>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" s="49"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" s="49"/>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" s="49"/>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" s="49"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" s="49"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" s="49"/>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" s="49"/>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" s="49"/>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" s="49"/>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="49"/>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" s="49"/>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" s="49"/>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" s="49"/>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" s="49"/>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" s="49"/>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" s="49"/>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" s="49"/>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" s="49"/>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" s="49"/>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" s="49"/>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" s="49"/>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" s="49"/>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" s="49"/>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" s="49"/>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" s="49"/>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" s="49"/>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" s="49"/>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" s="49"/>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" s="49"/>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" s="49"/>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" s="49"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" s="49"/>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" s="49"/>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" s="49"/>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" s="49"/>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" s="49"/>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" s="49"/>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" s="49"/>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" s="49"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" s="49"/>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" s="49"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" s="49"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" s="49"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" s="49"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" s="49"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346" s="49"/>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" s="49"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348" s="49"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349" s="49"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" s="49"/>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351" s="49"/>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352" s="49"/>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" s="49"/>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" s="49"/>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355" s="49"/>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" s="49"/>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357" s="49"/>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" s="49"/>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359" s="49"/>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360" s="49"/>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" s="49"/>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362" s="49"/>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A289" s="93" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A290" s="93"/>
+    </row>
+    <row r="291" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A291" s="93" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A292" s="93" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A293" s="91"/>
+    </row>
+    <row r="294" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A294" s="92"/>
+    </row>
+    <row r="295" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A295" s="90" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A296" s="90"/>
+    </row>
+    <row r="297" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A297" s="90"/>
+    </row>
+    <row r="298" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A298" s="90" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A299" s="90" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A300" s="90" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A301" s="90" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A302" s="90" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A303" s="90" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A304" s="90" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A305" s="90" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A306" s="90"/>
+    </row>
+    <row r="307" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A307" s="90"/>
+    </row>
+    <row r="308" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A308" s="90" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A309" s="90" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A310" s="90" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A311" s="90" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A312" s="90" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A313" s="90" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A314" s="90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A315" s="90" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A316" s="90" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A317" s="90" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A318" s="90"/>
+    </row>
+    <row r="319" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A319" s="90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A320" s="90" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A321" s="90" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A322" s="90"/>
+    </row>
+    <row r="323" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A323" s="90"/>
+    </row>
+    <row r="324" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A324" s="90" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A325" s="90" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A326" s="90"/>
+    </row>
+    <row r="327" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A327" s="90"/>
+    </row>
+    <row r="328" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A328" s="90" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A329" s="90" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A330" s="90" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A331" s="90" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A332" s="90" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A333" s="90" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A334" s="90" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A335" s="90"/>
+    </row>
+    <row r="336" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A336" s="90" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A337" s="90"/>
+    </row>
+    <row r="338" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A338" s="90"/>
+    </row>
+    <row r="339" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A339" s="90" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A340" s="90" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A341" s="90" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A342" s="90" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A343" s="90" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A344" s="90"/>
+    </row>
+    <row r="345" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A345" s="90" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A346" s="90" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A347" s="90" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A348" s="90" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A349" s="90" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A350" s="90"/>
+    </row>
+    <row r="351" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A351" s="90" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A352" s="90" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A353" s="90" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A354" s="90"/>
+    </row>
+    <row r="355" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A355" s="90" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A356" s="90" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A357" s="90" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A358" s="90" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A359" s="90" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A360" s="90" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A361" s="90"/>
+    </row>
+    <row r="362" spans="1:1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A362" s="90" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="49"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" s="49"/>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365" s="49"/>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="88" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="88" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A366" s="49"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
@@ -7983,7 +9004,7 @@
     <row r="470" spans="1:1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A186:A213"/>
+    <mergeCell ref="C130:F130"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A50:A52"/>

--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6652cd1e50613fb2/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{703D5B9E-ACB9-4CB8-88A7-F772D7E52EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFA5EC2A-4085-4EAB-99E2-6EA50BF0A0CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79984129-BFE2-4C35-8EFE-67130D3839A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="767">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2775,6 +2775,59 @@
   <si>
     <t>select a.mname,a.bprice,b.top from buy_list as a join (select max(bprice) as top from buy_list) as b where a.bprice=b.top;</t>
   </si>
+  <si>
+    <t>http://mekeyace.kbsn.or.kr/</t>
+  </si>
+  <si>
+    <t>sign.zip - 로그인페이지 원본</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(진도)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.설문조사 항목들은 질문,답변을 주로 배열로 처리함
+2.보안코드 출력(random매우중요)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#Statement, #PrepareStatement, #callablestatement 뭔지 알아보기
+3.java/work5 숙제
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4..밑에 링크 원본 - 로그인페이지 연습!
+5.java/java10~14</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2784,7 +2837,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3062,6 +3115,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3321,15 +3383,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3621,10 +3686,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="쉼표 [0] 2" xfId="1" xr:uid="{2D1CFF34-D6AA-4AF6-B265-6B701DDD07AB}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -3703,13 +3775,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAEFCAA0-086F-4D39-AE74-302C1E354D79}" name="표2" displayName="표2" ref="A2:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A2:I13" xr:uid="{CAEFCAA0-086F-4D39-AE74-302C1E354D79}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAEFCAA0-086F-4D39-AE74-302C1E354D79}" name="표2" displayName="표2" ref="A2:I15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A2:I15" xr:uid="{CAEFCAA0-086F-4D39-AE74-302C1E354D79}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4032,10 +4100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4301,8 +4369,10 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="14" t="s">
+        <v>766</v>
+      </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -4324,13 +4394,29 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>764</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79984129-BFE2-4C35-8EFE-67130D3839A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33D9237-C3D0-4562-9B59-4E02608B26BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="3165" yWindow="810" windowWidth="21600" windowHeight="11295" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
@@ -2776,12 +2776,6 @@
     <t>select a.mname,a.bprice,b.top from buy_list as a join (select max(bprice) as top from buy_list) as b where a.bprice=b.top;</t>
   </si>
   <si>
-    <t>http://mekeyace.kbsn.or.kr/</t>
-  </si>
-  <si>
-    <t>sign.zip - 로그인페이지 원본</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">(진도)
 </t>
@@ -2826,6 +2820,14 @@
       <t>4..밑에 링크 원본 - 로그인페이지 연습!
 5.java/java10~14</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mekeyace.kbsn.or.kr/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign.zip - 로그인페이지 원본</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3394,7 +3396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3656,6 +3658,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3686,10 +3694,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4102,8 +4107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4116,16 +4121,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -4369,9 +4374,9 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="97"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="14" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -4394,28 +4399,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
-        <v>764</v>
+      <c r="B14" s="99" t="s">
+        <v>765</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="98"/>
+      <c r="H14" s="88"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="98"/>
+      <c r="H15" s="88"/>
       <c r="I15" s="5"/>
     </row>
   </sheetData>
@@ -4423,12 +4428,15 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{31340625-BC4C-48BB-BD6D-D91FD9F67D66}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A11" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5290,90 +5298,90 @@
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="90" t="s">
+      <c r="A186" s="92" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="90"/>
+      <c r="A187" s="92"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="90"/>
+      <c r="A188" s="92"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="90"/>
+      <c r="A189" s="92"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="90"/>
+      <c r="A190" s="92"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="90"/>
+      <c r="A191" s="92"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="90"/>
+      <c r="A192" s="92"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="90"/>
+      <c r="A193" s="92"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="90"/>
+      <c r="A194" s="92"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="90"/>
+      <c r="A195" s="92"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="90"/>
+      <c r="A196" s="92"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="90"/>
+      <c r="A197" s="92"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="90"/>
+      <c r="A198" s="92"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="90"/>
+      <c r="A199" s="92"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="90"/>
+      <c r="A200" s="92"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="90"/>
+      <c r="A201" s="92"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="90"/>
+      <c r="A202" s="92"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="90"/>
+      <c r="A203" s="92"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="90"/>
+      <c r="A204" s="92"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="90"/>
+      <c r="A205" s="92"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="90"/>
+      <c r="A206" s="92"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="90"/>
+      <c r="A207" s="92"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="90"/>
+      <c r="A208" s="92"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="90"/>
+      <c r="A209" s="92"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="90"/>
+      <c r="A210" s="92"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="90"/>
+      <c r="A211" s="92"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="90"/>
+      <c r="A212" s="92"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="90"/>
+      <c r="A213" s="92"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="20" t="s">
@@ -6714,88 +6722,88 @@
       <c r="A185" s="48"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="91"/>
+      <c r="A186" s="93"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="91"/>
+      <c r="A187" s="93"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="91"/>
+      <c r="A188" s="93"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="91"/>
+      <c r="A189" s="93"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="91"/>
+      <c r="A190" s="93"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="91"/>
+      <c r="A191" s="93"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="91"/>
+      <c r="A192" s="93"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="91"/>
+      <c r="A193" s="93"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="91"/>
+      <c r="A194" s="93"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="91"/>
+      <c r="A195" s="93"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="91"/>
+      <c r="A196" s="93"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="91"/>
+      <c r="A197" s="93"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="91"/>
+      <c r="A198" s="93"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="91"/>
+      <c r="A199" s="93"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="91"/>
+      <c r="A200" s="93"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="91"/>
+      <c r="A201" s="93"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="91"/>
+      <c r="A202" s="93"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="91"/>
+      <c r="A203" s="93"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="91"/>
+      <c r="A204" s="93"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="91"/>
+      <c r="A205" s="93"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="91"/>
+      <c r="A206" s="93"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="91"/>
+      <c r="A207" s="93"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="91"/>
+      <c r="A208" s="93"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="91"/>
+      <c r="A209" s="93"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="91"/>
+      <c r="A210" s="93"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="91"/>
+      <c r="A211" s="93"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="91"/>
+      <c r="A212" s="93"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="91"/>
+      <c r="A213" s="93"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="48"/>
@@ -7590,24 +7598,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
+      <c r="A2" s="96"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
+      <c r="A3" s="96"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94"/>
+      <c r="A4" s="96"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94"/>
+      <c r="A5" s="96"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="94"/>
+      <c r="A6" s="96"/>
     </row>
     <row r="7" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
@@ -7664,15 +7672,15 @@
       <c r="A18" s="48"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="97" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="95"/>
+      <c r="A20" s="97"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="95"/>
+      <c r="A21" s="97"/>
     </row>
     <row r="22" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="62" t="s">
@@ -7796,26 +7804,26 @@
       <c r="A49" s="53"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="94" t="s">
+      <c r="A50" s="96" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="94"/>
+      <c r="A51" s="96"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="94"/>
+      <c r="A52" s="96"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="94" t="s">
+      <c r="A53" s="96" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="96"/>
+      <c r="A54" s="98"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="96"/>
+      <c r="A55" s="98"/>
     </row>
     <row r="56" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
@@ -8169,12 +8177,12 @@
       <c r="A130" s="78" t="s">
         <v>454</v>
       </c>
-      <c r="C130" s="92" t="s">
+      <c r="C130" s="94" t="s">
         <v>466</v>
       </c>
-      <c r="D130" s="92"/>
-      <c r="E130" s="92"/>
-      <c r="F130" s="92"/>
+      <c r="D130" s="94"/>
+      <c r="E130" s="94"/>
+      <c r="F130" s="94"/>
       <c r="G130" t="s">
         <v>465</v>
       </c>

--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33D9237-C3D0-4562-9B59-4E02608B26BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1729AD49-9296-4D8B-83CE-C23FE5C005F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="810" windowWidth="21600" windowHeight="11295" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="768">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2774,6 +2774,14 @@
   </si>
   <si>
     <t>select a.mname,a.bprice,b.top from buy_list as a join (select max(bprice) as top from buy_list) as b where a.bprice=b.top;</t>
+  </si>
+  <si>
+    <t>http://mekeyace.kbsn.or.kr/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign.zip - 로그인페이지 원본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2820,14 +2828,40 @@
       <t>4..밑에 링크 원본 - 로그인페이지 연습!
 5.java/java10~14</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mekeyace.kbsn.or.kr/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign.zip - 로그인페이지 원본</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.람다방식 db데이터 삽입 꼭연습!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.외부 패키지 외부 클래스 
+호출에 관한내용들(java/java9 -app/app1) 비교하며 확인! 
+2.메소드 호출시 배열로도 일괄 실행이 가능!
+3.VO / DAO / DTO 조사하기
+4. 스토리지(로컬,세션)특징
+5. web프로젝트 / 로그인 db저장연습 필수!
+6.onclick은 라벨태그 보단 input태그에 해야함 - label은 두번실행됨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3664,6 +3698,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3693,9 +3730,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4107,8 +4141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4121,16 +4155,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -4376,9 +4410,11 @@
     <row r="12" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
       <c r="B12" s="14" t="s">
-        <v>764</v>
-      </c>
-      <c r="C12" s="15"/>
+        <v>766</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>767</v>
+      </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -4399,8 +4435,8 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="99" t="s">
-        <v>765</v>
+      <c r="B14" s="89" t="s">
+        <v>764</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4413,7 +4449,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5298,90 +5334,90 @@
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="92" t="s">
+      <c r="A186" s="93" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="92"/>
+      <c r="A187" s="93"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="92"/>
+      <c r="A188" s="93"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="92"/>
+      <c r="A189" s="93"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="92"/>
+      <c r="A190" s="93"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="92"/>
+      <c r="A191" s="93"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="92"/>
+      <c r="A192" s="93"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="92"/>
+      <c r="A193" s="93"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="92"/>
+      <c r="A194" s="93"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="92"/>
+      <c r="A195" s="93"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="92"/>
+      <c r="A196" s="93"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="92"/>
+      <c r="A197" s="93"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="92"/>
+      <c r="A198" s="93"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="92"/>
+      <c r="A199" s="93"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="92"/>
+      <c r="A200" s="93"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="92"/>
+      <c r="A201" s="93"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="92"/>
+      <c r="A202" s="93"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="92"/>
+      <c r="A203" s="93"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="92"/>
+      <c r="A204" s="93"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="92"/>
+      <c r="A205" s="93"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="92"/>
+      <c r="A206" s="93"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="92"/>
+      <c r="A207" s="93"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="92"/>
+      <c r="A208" s="93"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="92"/>
+      <c r="A209" s="93"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="92"/>
+      <c r="A210" s="93"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="92"/>
+      <c r="A211" s="93"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="92"/>
+      <c r="A212" s="93"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="92"/>
+      <c r="A213" s="93"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="20" t="s">
@@ -6722,88 +6758,88 @@
       <c r="A185" s="48"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="93"/>
+      <c r="A186" s="94"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="93"/>
+      <c r="A187" s="94"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="93"/>
+      <c r="A188" s="94"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="93"/>
+      <c r="A189" s="94"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="93"/>
+      <c r="A190" s="94"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="93"/>
+      <c r="A191" s="94"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="93"/>
+      <c r="A192" s="94"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="93"/>
+      <c r="A193" s="94"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="93"/>
+      <c r="A194" s="94"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="93"/>
+      <c r="A195" s="94"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="93"/>
+      <c r="A196" s="94"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="93"/>
+      <c r="A197" s="94"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="93"/>
+      <c r="A198" s="94"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="93"/>
+      <c r="A199" s="94"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="93"/>
+      <c r="A200" s="94"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="93"/>
+      <c r="A201" s="94"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="93"/>
+      <c r="A202" s="94"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="93"/>
+      <c r="A203" s="94"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="93"/>
+      <c r="A204" s="94"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="93"/>
+      <c r="A205" s="94"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="93"/>
+      <c r="A206" s="94"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="93"/>
+      <c r="A207" s="94"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="93"/>
+      <c r="A208" s="94"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="93"/>
+      <c r="A209" s="94"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="93"/>
+      <c r="A210" s="94"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="93"/>
+      <c r="A211" s="94"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="93"/>
+      <c r="A212" s="94"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="93"/>
+      <c r="A213" s="94"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="48"/>
@@ -7598,24 +7634,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96"/>
+      <c r="A2" s="97"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96"/>
+      <c r="A3" s="97"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96"/>
+      <c r="A4" s="97"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96"/>
+      <c r="A5" s="97"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96"/>
+      <c r="A6" s="97"/>
     </row>
     <row r="7" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
@@ -7672,15 +7708,15 @@
       <c r="A18" s="48"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="98" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="98"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="97"/>
+      <c r="A21" s="98"/>
     </row>
     <row r="22" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="62" t="s">
@@ -7804,26 +7840,26 @@
       <c r="A49" s="53"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="96" t="s">
+      <c r="A50" s="97" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="96"/>
+      <c r="A51" s="97"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="96"/>
+      <c r="A52" s="97"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="96" t="s">
+      <c r="A53" s="97" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="98"/>
+      <c r="A54" s="99"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="98"/>
+      <c r="A55" s="99"/>
     </row>
     <row r="56" spans="1:1" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
@@ -8177,12 +8213,12 @@
       <c r="A130" s="78" t="s">
         <v>454</v>
       </c>
-      <c r="C130" s="94" t="s">
+      <c r="C130" s="95" t="s">
         <v>466</v>
       </c>
-      <c r="D130" s="94"/>
-      <c r="E130" s="94"/>
-      <c r="F130" s="94"/>
+      <c r="D130" s="95"/>
+      <c r="E130" s="95"/>
+      <c r="F130" s="95"/>
       <c r="G130" t="s">
         <v>465</v>
       </c>

--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\메모\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1729AD49-9296-4D8B-83CE-C23FE5C005F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6960D30-70F6-4E66-A4A3-8488ABA8B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="9375" yWindow="1725" windowWidth="18495" windowHeight="11295" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="771">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2862,6 +2862,38 @@
 4. 스토리지(로컬,세션)특징
 5. web프로젝트 / 로그인 db저장연습 필수!
 6.onclick은 라벨태그 보단 input태그에 해야함 - label은 두번실행됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.인터페이스 활용-부품같은개념
+java9, java16~17
+2.상속,추상클래스
+3. 쓰레드 기본 구조
+4.에디터 장착 ck에디터
+5. web프로젝트/login2 ,join
+servlet에서db에 select 출력,  insert 하는법 (람다식)
+파일 전송하는법-&gt;web/webapp/board2.java
+select-&gt;excuteQuery
+insert-&gt;excuteUpdate
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.에디터&gt;plugin&gt;js파일에서 
+기본텍스트 삭제가능
+2.모바일 웹 제작연습 JSP
+tostring-&gt;"" 을반환
+String.valueOf-&gt; "null"을반환
+(String) -&gt; null을 반환! 중요
+파일 전송시 주의점!
+form enctype multipart 설정!!!!!
+input type file name값붙엇는지 확인
+servlet 에서는 multipartconfig 붙엇는지 확인!
+file은 Part file = request.getPart("mfile"); 이렇게 받아와야함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험1차</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4141,8 +4173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4407,7 +4439,7 @@
       <c r="H11" s="40"/>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="16" customFormat="1" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
       <c r="B12" s="14" t="s">
         <v>766</v>
@@ -4415,9 +4447,15 @@
       <c r="C12" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>770</v>
+      </c>
       <c r="G12" s="15"/>
       <c r="H12" s="43"/>
       <c r="I12" s="37"/>

--- a/메모/2023-08월백엔드과정.xlsx
+++ b/메모/2023-08월백엔드과정.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6960D30-70F6-4E66-A4A3-8488ABA8B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CB8E34-2614-4EF4-8978-B864DFA6D8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1725" windowWidth="18495" windowHeight="11295" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{28DB66A7-19BC-4DB4-AFD0-34B1C9C55A42}"/>
   </bookViews>
   <sheets>
     <sheet name="8월(요약)" sheetId="1" r:id="rId1"/>
-    <sheet name="8월2주" sheetId="2" r:id="rId2"/>
-    <sheet name="8월3주" sheetId="3" r:id="rId3"/>
-    <sheet name="8월4주" sheetId="4" r:id="rId4"/>
+    <sheet name="9월(요약)" sheetId="5" r:id="rId2"/>
+    <sheet name="8월2주" sheetId="2" r:id="rId3"/>
+    <sheet name="8월3주" sheetId="3" r:id="rId4"/>
+    <sheet name="8월4주" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="778">
   <si>
     <t>토</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2894,6 +2895,47 @@
   </si>
   <si>
     <t>시험1차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년 9월 백엔드 과정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 추석 29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 추석 28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추석 30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트롤러에는 코드 만이 안떄림
+%%
+db정보셋팅 -&gt; 모듈 만들고 -&gt; 컨트롤러 연결 -&gt; 모듈에서 받아올 데이터 ArrayList 클래스 설정 -&gt;dao dto 사용
+예약시스템 / 쇼핑몰 / 관리자 페이지 젤 좋아함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-실무에선 StringBuffer를 많이씀
+-deepToString 2차원배열일 때 주로 사용
+1.쿠키 =&gt; Class 형태
+-텍스트 형태 (아스키)
+-저장소 = 클라이언트 측 (브라우저)
+-종료는 = 웹 브라우저 종료시 쿠키 종료
+-Cookie[] ck = req.getCookies(); 쿠키는 배열 형태로 됨
+2. 세션 =&gt; interface 형태 (로그인 ,추가정보,장바구니 같은것)
+-오브젝트 형태 
+저장소 = 서버 측 = 아파치 탐캣측에
+-전체 브라우저 모두 종료시 종료됨 다른창에 크롬열려있으면 저장됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3462,7 +3504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3763,13 +3805,74 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="쉼표 [0] 2" xfId="1" xr:uid="{2D1CFF34-D6AA-4AF6-B265-6B701DDD07AB}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -3847,7 +3950,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAEFCAA0-086F-4D39-AE74-302C1E354D79}" name="표2" displayName="표2" ref="A2:I15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAEFCAA0-086F-4D39-AE74-302C1E354D79}" name="표2" displayName="표2" ref="A2:I15" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A2:I15" xr:uid="{CAEFCAA0-086F-4D39-AE74-302C1E354D79}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3860,15 +3963,43 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{33F839B1-C598-49AA-B95E-87078F43F620}" name="일" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{99DEE7A8-96AF-4B98-A557-02FAB950AC77}" name="월" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D582F653-C3B8-4A9C-B698-F84318043686}" name="화" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{565323EF-E708-4100-A097-6B0A86005497}" name="수" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{D5F273B7-D408-43B5-831C-27DA2A770C37}" name="목" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{52C2400A-21E7-4CBE-9A53-EBDC617CF400}" name="금" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{19A6F717-A604-4541-A4C6-CAE1EAB3F816}" name="토" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{25031584-82F6-41C3-AD4C-1E35FFB6CAF5}" name="비고" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{C359746C-146D-4A3D-8609-7B58FDCBFBAC}" name="비고2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{33F839B1-C598-49AA-B95E-87078F43F620}" name="일" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{99DEE7A8-96AF-4B98-A557-02FAB950AC77}" name="월" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D582F653-C3B8-4A9C-B698-F84318043686}" name="화" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{565323EF-E708-4100-A097-6B0A86005497}" name="수" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{D5F273B7-D408-43B5-831C-27DA2A770C37}" name="목" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{52C2400A-21E7-4CBE-9A53-EBDC617CF400}" name="금" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{19A6F717-A604-4541-A4C6-CAE1EAB3F816}" name="토" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{25031584-82F6-41C3-AD4C-1E35FFB6CAF5}" name="비고" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{C359746C-146D-4A3D-8609-7B58FDCBFBAC}" name="비고2" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76BBE67F-C652-462F-9571-0B5127B65687}" name="표2_2" displayName="표2_2" ref="A2:I15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A2:I15" xr:uid="{CAEFCAA0-086F-4D39-AE74-302C1E354D79}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7542333F-330A-4976-A3A3-9D7C5CA4734F}" name="일" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4A8536B4-74BF-447D-A409-9A26EED136D2}" name="월" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9B919F3F-13F9-4DF7-8E6E-FF0A05E4D1E0}" name="화" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{70438187-67B7-405C-AFB3-1AC657BC5175}" name="수" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{87E808B5-DBBB-4D67-B5CB-82095613604A}" name="목" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{34D3B278-E3DE-4B4A-95A4-89E4CE64D7C1}" name="금" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{081CF2AB-D3B8-4992-86F6-6685F22FE541}" name="토" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{3AFB771C-5C7B-48F5-B799-29310829E73E}" name="비고" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{B47476F7-FF70-43D0-9E61-4C7D34437963}" name="비고2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4173,7 +4304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F9C82-26D3-405D-9FA2-A93DB7BF3487}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4516,6 +4647,281 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E48EA8-E25F-4C8C-8411-889596E31CF3}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="28.125" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="47" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
+    <col min="9" max="9" width="34.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
+        <v>771</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
+    </row>
+    <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="256.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" s="16" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>773</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>772</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>774</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="87"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FF7584-46E4-457F-B0DE-5DA52BE23CD6}">
   <dimension ref="A1:A340"/>
   <sheetViews>
@@ -6048,7 +6454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1290B4-C84E-48ED-9560-0F0A3DE8A9A3}">
   <dimension ref="A1:C470"/>
   <sheetViews>
@@ -7658,7 +8064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5738E637-5389-4C73-B487-9743EE17E5CA}">
   <dimension ref="A1:G564"/>
   <sheetViews>
